--- a/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.862808235928696</v>
+        <v>3.203550763482724</v>
       </c>
       <c r="C2">
-        <v>0.3072402793102356</v>
+        <v>0.4721468401946822</v>
       </c>
       <c r="D2">
-        <v>0.230692654324244</v>
+        <v>0.006115126346109001</v>
       </c>
       <c r="E2">
-        <v>0.03361161305560145</v>
+        <v>0.02689410534108294</v>
       </c>
       <c r="F2">
-        <v>6.627809298593093</v>
+        <v>1.993749097611328</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1004147330504743</v>
+        <v>0.05869986727956356</v>
       </c>
       <c r="K2">
-        <v>0.4675803597059414</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08101318535476665</v>
+        <v>0.172620846264472</v>
       </c>
       <c r="M2">
-        <v>0.4398667695134648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5293049549268503</v>
+      </c>
+      <c r="N2">
+        <v>1.231345764280171</v>
+      </c>
+      <c r="O2">
+        <v>1.468137240767732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.600977674471153</v>
+        <v>2.815879344168025</v>
       </c>
       <c r="C3">
-        <v>0.2619311447929533</v>
+        <v>0.4082384687372382</v>
       </c>
       <c r="D3">
-        <v>0.2054137275796393</v>
+        <v>0.005461977663913764</v>
       </c>
       <c r="E3">
-        <v>0.0307715063178442</v>
+        <v>0.02678039675036414</v>
       </c>
       <c r="F3">
-        <v>5.868821784026551</v>
+        <v>1.890925246276197</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09064275126830523</v>
+        <v>0.05978100261637653</v>
       </c>
       <c r="K3">
-        <v>0.4003567508870702</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07045485402239393</v>
+        <v>0.1586332478431842</v>
       </c>
       <c r="M3">
-        <v>0.3793169737528856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4689549301497777</v>
+      </c>
+      <c r="N3">
+        <v>1.292948643909195</v>
+      </c>
+      <c r="O3">
+        <v>1.389264765452381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.444627052227275</v>
+        <v>2.581530643962878</v>
       </c>
       <c r="C4">
-        <v>0.2348799139267186</v>
+        <v>0.3693719140848373</v>
       </c>
       <c r="D4">
-        <v>0.190210733802715</v>
+        <v>0.005077496484618749</v>
       </c>
       <c r="E4">
-        <v>0.02908108843474899</v>
+        <v>0.02671683856818108</v>
       </c>
       <c r="F4">
-        <v>5.4132497702862</v>
+        <v>1.831562651431696</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08478147038695028</v>
+        <v>0.06046593443664294</v>
       </c>
       <c r="K4">
-        <v>0.3602160323219294</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06416258602462577</v>
+        <v>0.150246623282797</v>
       </c>
       <c r="M4">
-        <v>0.3431845888745784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4325216365177482</v>
+      </c>
+      <c r="N4">
+        <v>1.332470435096219</v>
+      </c>
+      <c r="O4">
+        <v>1.343746874958484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.38187265555942</v>
+        <v>2.486857032125386</v>
       </c>
       <c r="C5">
-        <v>0.224018696796989</v>
+        <v>0.3536111338702312</v>
       </c>
       <c r="D5">
-        <v>0.1840815503680915</v>
+        <v>0.004924245118532511</v>
       </c>
       <c r="E5">
-        <v>0.02840421016889572</v>
+        <v>0.02669238653878692</v>
       </c>
       <c r="F5">
-        <v>5.22984410574125</v>
+        <v>1.808254971504184</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08242280580508776</v>
+        <v>0.0607503986530249</v>
       </c>
       <c r="K5">
-        <v>0.3441036127497696</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06164037374367481</v>
+        <v>0.1468760165803289</v>
       </c>
       <c r="M5">
-        <v>0.3286886542452692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4178154171975095</v>
+      </c>
+      <c r="N5">
+        <v>1.348989232296059</v>
+      </c>
+      <c r="O5">
+        <v>1.32587771264096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.371506206202952</v>
+        <v>2.47118359538581</v>
       </c>
       <c r="C6">
-        <v>0.2222241671089762</v>
+        <v>0.3509983067245628</v>
       </c>
       <c r="D6">
-        <v>0.1830674198628373</v>
+        <v>0.004898984658184169</v>
       </c>
       <c r="E6">
-        <v>0.02829249889265384</v>
+        <v>0.02668841033824654</v>
       </c>
       <c r="F6">
-        <v>5.199514744874421</v>
+        <v>1.804436261359086</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08203281669660711</v>
+        <v>0.06079795792559972</v>
       </c>
       <c r="K6">
-        <v>0.3414418776353685</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0612239318445198</v>
+        <v>0.146319065092996</v>
       </c>
       <c r="M6">
-        <v>0.3262944615251158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4153815170021673</v>
+      </c>
+      <c r="N6">
+        <v>1.351756756136293</v>
+      </c>
+      <c r="O6">
+        <v>1.322950156741285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.443777025663962</v>
+        <v>2.580250628418298</v>
       </c>
       <c r="C7">
-        <v>0.234732816698525</v>
+        <v>0.369159064851857</v>
       </c>
       <c r="D7">
-        <v>0.1901278229741052</v>
+        <v>0.005075416726787019</v>
       </c>
       <c r="E7">
-        <v>0.02907191312375623</v>
+        <v>0.02671650309200002</v>
       </c>
       <c r="F7">
-        <v>5.41076769252382</v>
+        <v>1.831244823403082</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08474954602355922</v>
+        <v>0.06046974911073333</v>
       </c>
       <c r="K7">
-        <v>0.3599977915223818</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06412840824815547</v>
+        <v>0.1502009805001094</v>
       </c>
       <c r="M7">
-        <v>0.3429882103122708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4323227537994683</v>
+      </c>
+      <c r="N7">
+        <v>1.332691556812467</v>
+      </c>
+      <c r="O7">
+        <v>1.343503198945115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.77151715328344</v>
+        <v>3.069054124732531</v>
       </c>
       <c r="C8">
-        <v>0.2914383853684939</v>
+        <v>0.450023535868155</v>
       </c>
       <c r="D8">
-        <v>0.2219015787732275</v>
+        <v>0.005886020555731619</v>
       </c>
       <c r="E8">
-        <v>0.03262033592514335</v>
+        <v>0.02685351999951924</v>
       </c>
       <c r="F8">
-        <v>6.363697750182922</v>
+        <v>1.957471756715876</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09701335782969167</v>
+        <v>0.05906828661382946</v>
       </c>
       <c r="K8">
-        <v>0.4441405602309771</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0773293073243444</v>
+        <v>0.1677536949466685</v>
       </c>
       <c r="M8">
-        <v>0.4187502107993168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5083573484649477</v>
+      </c>
+      <c r="N8">
+        <v>1.252225729958447</v>
+      </c>
+      <c r="O8">
+        <v>1.44030547416132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.457005664252108</v>
+        <v>4.061816458706744</v>
       </c>
       <c r="C9">
-        <v>0.4103460135518446</v>
+        <v>0.612369915284404</v>
       </c>
       <c r="D9">
-        <v>0.2874489619570255</v>
+        <v>0.007644036976953927</v>
       </c>
       <c r="E9">
-        <v>0.04007699217225635</v>
+        <v>0.02717825621448178</v>
       </c>
       <c r="F9">
-        <v>8.335021117097767</v>
+        <v>2.238150554680601</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1224219187653937</v>
+        <v>0.05648550014289189</v>
       </c>
       <c r="K9">
-        <v>0.6202246757989229</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1050369832458671</v>
+        <v>0.2039611160234784</v>
       </c>
       <c r="M9">
-        <v>0.5773991249682382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6631750151028371</v>
+      </c>
+      <c r="N9">
+        <v>1.108558927022472</v>
+      </c>
+      <c r="O9">
+        <v>1.655790717502995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.999381884566105</v>
+        <v>4.819769305221087</v>
       </c>
       <c r="C10">
-        <v>0.5050507679250984</v>
+        <v>0.7351972163385199</v>
       </c>
       <c r="D10">
-        <v>0.3387353979128136</v>
+        <v>0.009096826444973338</v>
       </c>
       <c r="E10">
-        <v>0.04597902641087259</v>
+        <v>0.02746116973584734</v>
       </c>
       <c r="F10">
-        <v>9.877848407149656</v>
+        <v>2.469521006615651</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1423358890290558</v>
+        <v>0.0546856883402973</v>
       </c>
       <c r="K10">
-        <v>0.7597400413015336</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1270051171116542</v>
+        <v>0.2319374693388312</v>
       </c>
       <c r="M10">
-        <v>0.7030102245454941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7816059230305115</v>
+      </c>
+      <c r="N10">
+        <v>1.012623839779906</v>
+      </c>
+      <c r="O10">
+        <v>1.833691111918327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.258010022165081</v>
+        <v>5.172723746101383</v>
       </c>
       <c r="C11">
-        <v>0.5504631014622419</v>
+        <v>0.792162575383486</v>
       </c>
       <c r="D11">
-        <v>0.363060135354587</v>
+        <v>0.009808035570655349</v>
       </c>
       <c r="E11">
-        <v>0.04878837947694947</v>
+        <v>0.02760218700587114</v>
       </c>
       <c r="F11">
-        <v>10.60891621323486</v>
+        <v>2.581483678963963</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.151779204666699</v>
+        <v>0.05388738012337235</v>
       </c>
       <c r="K11">
-        <v>0.8263454436613742</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1374857336886706</v>
+        <v>0.2450348008368479</v>
       </c>
       <c r="M11">
-        <v>0.7629155427969323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8368031073890165</v>
+      </c>
+      <c r="N11">
+        <v>0.9713228682622841</v>
+      </c>
+      <c r="O11">
+        <v>1.919867293618168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.358011517340287</v>
+        <v>5.307732866655044</v>
       </c>
       <c r="C12">
-        <v>0.5680705291438812</v>
+        <v>0.8139205384620709</v>
       </c>
       <c r="D12">
-        <v>0.3724460930253173</v>
+        <v>0.0100860822217328</v>
       </c>
       <c r="E12">
-        <v>0.04987336941229614</v>
+        <v>0.02765762228784352</v>
       </c>
       <c r="F12">
-        <v>10.89083448579333</v>
+        <v>2.624963153488579</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1554218768943372</v>
+        <v>0.05358795449109266</v>
       </c>
       <c r="K12">
-        <v>0.8521141355260866</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.141538446995785</v>
+        <v>0.250054417383808</v>
       </c>
       <c r="M12">
-        <v>0.7860787989014568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8579232675284914</v>
+      </c>
+      <c r="N12">
+        <v>0.9560441832642468</v>
+      </c>
+      <c r="O12">
+        <v>1.953348198058691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.336376236692843</v>
+        <v>5.278592982162081</v>
       </c>
       <c r="C13">
-        <v>0.5642588220210314</v>
+        <v>0.8092257720194027</v>
       </c>
       <c r="D13">
-        <v>0.3704163215971903</v>
+        <v>0.01002578577908686</v>
       </c>
       <c r="E13">
-        <v>0.04963869896513984</v>
+        <v>0.02764558817655294</v>
       </c>
       <c r="F13">
-        <v>10.82987681174274</v>
+        <v>2.615548965579976</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1546341920154219</v>
+        <v>0.05365231428205064</v>
       </c>
       <c r="K13">
-        <v>0.8465383621090581</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1406616415123487</v>
+        <v>0.2489705737804826</v>
       </c>
       <c r="M13">
-        <v>0.7810674491590959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8533644790406996</v>
+      </c>
+      <c r="N13">
+        <v>0.9593182400303562</v>
+      </c>
+      <c r="O13">
+        <v>1.946098180020925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.266193565863034</v>
+        <v>5.183802810153509</v>
       </c>
       <c r="C14">
-        <v>0.551902956987675</v>
+        <v>0.7939486980411914</v>
       </c>
       <c r="D14">
-        <v>0.3638286200840781</v>
+        <v>0.00983072644959293</v>
       </c>
       <c r="E14">
-        <v>0.04887719776712629</v>
+        <v>0.02760670526354359</v>
       </c>
       <c r="F14">
-        <v>10.63200243349769</v>
+        <v>2.585038368779408</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1520774801231788</v>
+        <v>0.05386268892602786</v>
       </c>
       <c r="K14">
-        <v>0.8284538835100577</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1378173822329671</v>
+        <v>0.2454465258055336</v>
       </c>
       <c r="M14">
-        <v>0.764811092686827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.838536131114445</v>
+      </c>
+      <c r="N14">
+        <v>0.9700584939543475</v>
+      </c>
+      <c r="O14">
+        <v>1.922604224018087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.223485142982327</v>
+        <v>5.125922968225382</v>
       </c>
       <c r="C15">
-        <v>0.5443906206237727</v>
+        <v>0.7846162638662122</v>
       </c>
       <c r="D15">
-        <v>0.3598172538166011</v>
+        <v>0.009712431288377843</v>
       </c>
       <c r="E15">
-        <v>0.04841361651548581</v>
+        <v>0.0275831618766107</v>
       </c>
       <c r="F15">
-        <v>10.51148873377264</v>
+        <v>2.566494294000719</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1505204794602371</v>
+        <v>0.05399192211634363</v>
       </c>
       <c r="K15">
-        <v>0.8174509427175067</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1360865762958063</v>
+        <v>0.2432959600305225</v>
       </c>
       <c r="M15">
-        <v>0.7549185639991904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.8294826394761898</v>
+      </c>
+      <c r="N15">
+        <v>0.9766850120810702</v>
+      </c>
+      <c r="O15">
+        <v>1.908326858576771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.982748142526816</v>
+        <v>4.796881980730234</v>
       </c>
       <c r="C16">
-        <v>0.502136005137146</v>
+        <v>0.7314987937193393</v>
       </c>
       <c r="D16">
-        <v>0.3371683133353542</v>
+        <v>0.009051482734270699</v>
       </c>
       <c r="E16">
-        <v>0.0457981987770566</v>
+        <v>0.02745222348543264</v>
       </c>
       <c r="F16">
-        <v>9.830730961300247</v>
+        <v>2.462348699846586</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1417274120534735</v>
+        <v>0.05473826567677431</v>
       </c>
       <c r="K16">
-        <v>0.7554581398934133</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1263311182500608</v>
+        <v>0.2310895385573275</v>
       </c>
       <c r="M16">
-        <v>0.699157483439393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7780275924721636</v>
+      </c>
+      <c r="N16">
+        <v>1.015372085487009</v>
+      </c>
+      <c r="O16">
+        <v>1.828172632494258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.838343416505154</v>
+        <v>4.59723721284405</v>
       </c>
       <c r="C17">
-        <v>0.4768605545341131</v>
+        <v>0.6992122720489817</v>
       </c>
       <c r="D17">
-        <v>0.3235494608022407</v>
+        <v>0.008659899695899753</v>
       </c>
       <c r="E17">
-        <v>0.04422775173377502</v>
+        <v>0.02737522799259384</v>
       </c>
       <c r="F17">
-        <v>9.421170613259221</v>
+        <v>2.400256574764526</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1364391150721147</v>
+        <v>0.05520131467963996</v>
       </c>
       <c r="K17">
-        <v>0.7182940545086964</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1204803656412814</v>
+        <v>0.2237007446916692</v>
       </c>
       <c r="M17">
-        <v>0.6657109946519384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7468192640573577</v>
+      </c>
+      <c r="N17">
+        <v>1.039721387907413</v>
+      </c>
+      <c r="O17">
+        <v>1.780407900297803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.756381029336922</v>
+        <v>4.483162799186971</v>
       </c>
       <c r="C18">
-        <v>0.4625368780710346</v>
+        <v>0.680742609006586</v>
       </c>
       <c r="D18">
-        <v>0.3158076491985895</v>
+        <v>0.008439308099796428</v>
       </c>
       <c r="E18">
-        <v>0.04333596584143962</v>
+        <v>0.02733208381109975</v>
       </c>
       <c r="F18">
-        <v>9.188292872986352</v>
+        <v>2.365166802476125</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1334328143978496</v>
+        <v>0.05546957571214595</v>
       </c>
       <c r="K18">
-        <v>0.6972071064019048</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1171600646570461</v>
+        <v>0.2194853651840134</v>
       </c>
       <c r="M18">
-        <v>0.6467280257753387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7289916753918746</v>
+      </c>
+      <c r="N18">
+        <v>1.053945124856881</v>
+      </c>
+      <c r="O18">
+        <v>1.753422735568108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.728808346791425</v>
+        <v>4.444663843205262</v>
       </c>
       <c r="C19">
-        <v>0.4577218209395824</v>
+        <v>0.6745055454453563</v>
       </c>
       <c r="D19">
-        <v>0.3132012230329195</v>
+        <v>0.008365373785014008</v>
       </c>
       <c r="E19">
-        <v>0.04303590631244347</v>
+        <v>0.02731766457587037</v>
       </c>
       <c r="F19">
-        <v>9.109882316124242</v>
+        <v>2.353389832462312</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1324206939428407</v>
+        <v>0.05556073714346743</v>
       </c>
       <c r="K19">
-        <v>0.6901144120665492</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1160431952643535</v>
+        <v>0.2180638381601341</v>
       </c>
       <c r="M19">
-        <v>0.6403422055938321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7229758153669579</v>
+      </c>
+      <c r="N19">
+        <v>1.058797889868167</v>
+      </c>
+      <c r="O19">
+        <v>1.744367139892233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.853599817600127</v>
+        <v>4.618410259118889</v>
       </c>
       <c r="C20">
-        <v>0.4795285089209642</v>
+        <v>0.7026386028562683</v>
       </c>
       <c r="D20">
-        <v>0.324989539912238</v>
+        <v>0.008701094360979766</v>
       </c>
       <c r="E20">
-        <v>0.04439371716408047</v>
+        <v>0.02738330435454994</v>
       </c>
       <c r="F20">
-        <v>9.464484690237953</v>
+        <v>2.406801004914783</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1369983243198725</v>
+        <v>0.05515182326770329</v>
       </c>
       <c r="K20">
-        <v>0.7222197048560943</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1210984488439344</v>
+        <v>0.2244836822825107</v>
       </c>
       <c r="M20">
-        <v>0.6692445435183032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7501285603521737</v>
+      </c>
+      <c r="N20">
+        <v>1.037106563382004</v>
+      </c>
+      <c r="O20">
+        <v>1.785441405787736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.286748737162725</v>
+        <v>5.211606728652328</v>
       </c>
       <c r="C21">
-        <v>0.5555203499228298</v>
+        <v>0.7984306324420061</v>
       </c>
       <c r="D21">
-        <v>0.3657585647182344</v>
+        <v>0.00988777033465027</v>
       </c>
       <c r="E21">
-        <v>0.04910026644390442</v>
+        <v>0.02761806858964899</v>
       </c>
       <c r="F21">
-        <v>10.68997733364421</v>
+        <v>2.593969720220741</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1528265371054509</v>
+        <v>0.05380081925346758</v>
       </c>
       <c r="K21">
-        <v>0.8337500480536875</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1386504090804515</v>
+        <v>0.2464799408433294</v>
       </c>
       <c r="M21">
-        <v>0.7695722751242471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8428854157850765</v>
+      </c>
+      <c r="N21">
+        <v>0.9668938111460932</v>
+      </c>
+      <c r="O21">
+        <v>1.929481162604532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.582085769529442</v>
+        <v>5.607279518256462</v>
       </c>
       <c r="C22">
-        <v>0.6076261378709944</v>
+        <v>0.8621391969382444</v>
       </c>
       <c r="D22">
-        <v>0.3934409525849958</v>
+        <v>0.01071504912758314</v>
       </c>
       <c r="E22">
-        <v>0.05230148352424635</v>
+        <v>0.02778351453388606</v>
       </c>
       <c r="F22">
-        <v>11.52103826934456</v>
+        <v>2.722663923210007</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1635668050189913</v>
+        <v>0.05293459265665224</v>
       </c>
       <c r="K22">
-        <v>0.9098860502156896</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1506192334162684</v>
+        <v>0.2612087767703031</v>
       </c>
       <c r="M22">
-        <v>0.8379798916634229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9047944962083321</v>
+      </c>
+      <c r="N22">
+        <v>0.9231239872506336</v>
+      </c>
+      <c r="O22">
+        <v>2.028612602992382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.423203140154669</v>
+        <v>5.395306032542123</v>
       </c>
       <c r="C23">
-        <v>0.579563940794543</v>
+        <v>0.828025102833152</v>
       </c>
       <c r="D23">
-        <v>0.3785593576431268</v>
+        <v>0.01026823410510413</v>
       </c>
       <c r="E23">
-        <v>0.05058024844536746</v>
+        <v>0.02769401598150356</v>
       </c>
       <c r="F23">
-        <v>11.07439595504638</v>
+        <v>2.653352602948416</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1577939891139337</v>
+        <v>0.05339540510330387</v>
       </c>
       <c r="K23">
-        <v>0.8689175685040595</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1441804391622945</v>
+        <v>0.253313032237088</v>
       </c>
       <c r="M23">
-        <v>0.8011789770037296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.871624575776579</v>
+      </c>
+      <c r="N23">
+        <v>0.9462820687613203</v>
+      </c>
+      <c r="O23">
+        <v>1.975213784678601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.846699129605781</v>
+        <v>4.608835745361432</v>
       </c>
       <c r="C24">
-        <v>0.4783216858749029</v>
+        <v>0.7010892734328138</v>
       </c>
       <c r="D24">
-        <v>0.3243382088305964</v>
+        <v>0.008682456238261693</v>
       </c>
       <c r="E24">
-        <v>0.04431864990235468</v>
+        <v>0.02737964955734506</v>
       </c>
       <c r="F24">
-        <v>9.444894411564547</v>
+        <v>2.403840383476052</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1367454007123285</v>
+        <v>0.05517419195130202</v>
       </c>
       <c r="K24">
-        <v>0.7204440556952605</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1208188793373779</v>
+        <v>0.2241296153455323</v>
       </c>
       <c r="M24">
-        <v>0.6676462661694131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7486320729495901</v>
+      </c>
+      <c r="N24">
+        <v>1.038288026551285</v>
+      </c>
+      <c r="O24">
+        <v>1.78316428404824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.265790240198726</v>
+        <v>3.788834019244632</v>
       </c>
       <c r="C25">
-        <v>0.3771055250259963</v>
+        <v>0.5679255655884674</v>
       </c>
       <c r="D25">
-        <v>0.2692608633681886</v>
+        <v>0.007144814510200881</v>
       </c>
       <c r="E25">
-        <v>0.0379950744442219</v>
+        <v>0.02708343724708584</v>
       </c>
       <c r="F25">
-        <v>7.78772173877357</v>
+        <v>2.158189251458197</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1153632217128298</v>
+        <v>0.05716680554582787</v>
       </c>
       <c r="K25">
-        <v>0.5710842320513621</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09729912638013261</v>
+        <v>0.1939469549079362</v>
       </c>
       <c r="M25">
-        <v>0.5331275264915121</v>
+        <v>0.6205638811726288</v>
+      </c>
+      <c r="N25">
+        <v>1.145814804378844</v>
+      </c>
+      <c r="O25">
+        <v>1.594366045383651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.203550763482724</v>
+        <v>4.099481059537823</v>
       </c>
       <c r="C2">
-        <v>0.4721468401946822</v>
+        <v>0.6758976470247546</v>
       </c>
       <c r="D2">
-        <v>0.006115126346109001</v>
+        <v>0.02475920075254123</v>
       </c>
       <c r="E2">
-        <v>0.02689410534108294</v>
+        <v>0.0231205536888579</v>
       </c>
       <c r="F2">
-        <v>1.993749097611328</v>
+        <v>3.129957104242081</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05869986727956356</v>
+        <v>0.05628174332871172</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.172620846264472</v>
+        <v>0.1736947582853077</v>
       </c>
       <c r="M2">
-        <v>0.5293049549268503</v>
+        <v>0.6478008419449282</v>
       </c>
       <c r="N2">
-        <v>1.231345764280171</v>
+        <v>1.80052783645678</v>
       </c>
       <c r="O2">
-        <v>1.468137240767732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.815879344168025</v>
+        <v>3.622732101747999</v>
       </c>
       <c r="C3">
-        <v>0.4082384687372382</v>
+        <v>0.5822937478007759</v>
       </c>
       <c r="D3">
-        <v>0.005461977663913764</v>
+        <v>0.0212610176883743</v>
       </c>
       <c r="E3">
-        <v>0.02678039675036414</v>
+        <v>0.02190387136263094</v>
       </c>
       <c r="F3">
-        <v>1.890925246276197</v>
+        <v>2.940734420800055</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05978100261637653</v>
+        <v>0.05687620886808542</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1586332478431842</v>
+        <v>0.1602592203783786</v>
       </c>
       <c r="M3">
-        <v>0.4689549301497777</v>
+        <v>0.5767697096831839</v>
       </c>
       <c r="N3">
-        <v>1.292948643909195</v>
+        <v>1.83992857645525</v>
       </c>
       <c r="O3">
-        <v>1.389264765452381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.581530643962878</v>
+        <v>3.33686231178541</v>
       </c>
       <c r="C4">
-        <v>0.3693719140848373</v>
+        <v>0.5258888303618505</v>
       </c>
       <c r="D4">
-        <v>0.005077496484618749</v>
+        <v>0.01920214715250523</v>
       </c>
       <c r="E4">
-        <v>0.02671683856818108</v>
+        <v>0.0211666700265658</v>
       </c>
       <c r="F4">
-        <v>1.831562651431696</v>
+        <v>2.830573333924804</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06046593443664294</v>
+        <v>0.05725138689666531</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.150246623282797</v>
+        <v>0.1522719594254767</v>
       </c>
       <c r="M4">
-        <v>0.4325216365177482</v>
+        <v>0.5342314022020531</v>
       </c>
       <c r="N4">
-        <v>1.332470435096219</v>
+        <v>1.866310326903957</v>
       </c>
       <c r="O4">
-        <v>1.343746874958484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.486857032125386</v>
+        <v>3.221900475434325</v>
       </c>
       <c r="C5">
-        <v>0.3536111338702312</v>
+        <v>0.5031337406537659</v>
       </c>
       <c r="D5">
-        <v>0.004924245118532511</v>
+        <v>0.01838242561058934</v>
       </c>
       <c r="E5">
-        <v>0.02669238653878692</v>
+        <v>0.02086809822085733</v>
       </c>
       <c r="F5">
-        <v>1.808254971504184</v>
+        <v>2.78706814893691</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0607503986530249</v>
+        <v>0.05740686225516178</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1468760165803289</v>
+        <v>0.1490776216020606</v>
       </c>
       <c r="M5">
-        <v>0.4178154171975095</v>
+        <v>0.5171385426186319</v>
       </c>
       <c r="N5">
-        <v>1.348989232296059</v>
+        <v>1.877584328562392</v>
       </c>
       <c r="O5">
-        <v>1.32587771264096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.47118359538581</v>
+        <v>3.202898420377437</v>
       </c>
       <c r="C6">
-        <v>0.3509983067245628</v>
+        <v>0.4993681357658772</v>
       </c>
       <c r="D6">
-        <v>0.004898984658184169</v>
+        <v>0.01824739120747765</v>
       </c>
       <c r="E6">
-        <v>0.02668841033824654</v>
+        <v>0.02081861465085222</v>
       </c>
       <c r="F6">
-        <v>1.804436261359086</v>
+        <v>2.779924346056234</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06079795792559972</v>
+        <v>0.05743283592106607</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.146319065092996</v>
+        <v>0.1485507114425388</v>
       </c>
       <c r="M6">
-        <v>0.4153815170021673</v>
+        <v>0.5143141071112325</v>
       </c>
       <c r="N6">
-        <v>1.351756756136293</v>
+        <v>1.879487215987425</v>
       </c>
       <c r="O6">
-        <v>1.322950156741285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.580250628418298</v>
+        <v>3.335305932562733</v>
       </c>
       <c r="C7">
-        <v>0.369159064851857</v>
+        <v>0.5255810625615993</v>
       </c>
       <c r="D7">
-        <v>0.005075416726787019</v>
+        <v>0.01919101789917832</v>
       </c>
       <c r="E7">
-        <v>0.02671650309200002</v>
+        <v>0.02116263670796759</v>
       </c>
       <c r="F7">
-        <v>1.831244823403082</v>
+        <v>2.82998115559036</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06046974911073333</v>
+        <v>0.05725347317793084</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1502009805001094</v>
+        <v>0.1522286411570377</v>
       </c>
       <c r="M7">
-        <v>0.4323227537994683</v>
+        <v>0.5339999385497052</v>
       </c>
       <c r="N7">
-        <v>1.332691556812467</v>
+        <v>1.866460287874389</v>
       </c>
       <c r="O7">
-        <v>1.343503198945115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.069054124732531</v>
+        <v>3.933554198115417</v>
       </c>
       <c r="C8">
-        <v>0.450023535868155</v>
+        <v>0.6433771478621395</v>
       </c>
       <c r="D8">
-        <v>0.005886020555731619</v>
+        <v>0.02353258393753066</v>
       </c>
       <c r="E8">
-        <v>0.02685351999951924</v>
+        <v>0.02269859676024577</v>
       </c>
       <c r="F8">
-        <v>1.957471756715876</v>
+        <v>3.063382439585425</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05906828661382946</v>
+        <v>0.05648462118210107</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1677536949466685</v>
+        <v>0.1690043567183466</v>
       </c>
       <c r="M8">
-        <v>0.5083573484649477</v>
+        <v>0.623068196024775</v>
       </c>
       <c r="N8">
-        <v>1.252225729958447</v>
+        <v>1.813641520526375</v>
       </c>
       <c r="O8">
-        <v>1.44030547416132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.061816458706744</v>
+        <v>5.170784290626955</v>
       </c>
       <c r="C9">
-        <v>0.612369915284404</v>
+        <v>0.8847866348231719</v>
       </c>
       <c r="D9">
-        <v>0.007644036976953927</v>
+        <v>0.03291081486464265</v>
       </c>
       <c r="E9">
-        <v>0.02717825621448178</v>
+        <v>0.02582109126537979</v>
       </c>
       <c r="F9">
-        <v>2.238150554680601</v>
+        <v>3.575314734748616</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05648550014289189</v>
+        <v>0.05505626818117371</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2039611160234784</v>
+        <v>0.2042543870285058</v>
       </c>
       <c r="M9">
-        <v>0.6631750151028371</v>
+        <v>0.8076989604109599</v>
       </c>
       <c r="N9">
-        <v>1.108558927022472</v>
+        <v>1.728811803681836</v>
       </c>
       <c r="O9">
-        <v>1.655790717502995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.819769305221087</v>
+        <v>6.134112404143934</v>
       </c>
       <c r="C10">
-        <v>0.7351972163385199</v>
+        <v>1.071567611621333</v>
       </c>
       <c r="D10">
-        <v>0.009096826444973338</v>
+        <v>0.04058105373380982</v>
       </c>
       <c r="E10">
-        <v>0.02746116973584734</v>
+        <v>0.02823459751180035</v>
       </c>
       <c r="F10">
-        <v>2.469521006615651</v>
+        <v>3.994669801897658</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0546856883402973</v>
+        <v>0.05405330485802029</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2319374693388312</v>
+        <v>0.2320168170540597</v>
       </c>
       <c r="M10">
-        <v>0.7816059230305115</v>
+        <v>0.9516955168188019</v>
       </c>
       <c r="N10">
-        <v>1.012623839779906</v>
+        <v>1.680085670157197</v>
       </c>
       <c r="O10">
-        <v>1.833691111918327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.172723746101383</v>
+        <v>6.588149011248845</v>
       </c>
       <c r="C11">
-        <v>0.792162575383486</v>
+        <v>1.159391557315246</v>
       </c>
       <c r="D11">
-        <v>0.009808035570655349</v>
+        <v>0.04430751129514476</v>
       </c>
       <c r="E11">
-        <v>0.02760218700587114</v>
+        <v>0.02937248493226363</v>
       </c>
       <c r="F11">
-        <v>2.581483678963963</v>
+        <v>4.197497570268865</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05388738012337235</v>
+        <v>0.05360670666210776</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2450348008368479</v>
+        <v>0.2451635397851248</v>
       </c>
       <c r="M11">
-        <v>0.8368031073890165</v>
+        <v>1.019609683299059</v>
       </c>
       <c r="N11">
-        <v>0.9713228682622841</v>
+        <v>1.661442929713857</v>
       </c>
       <c r="O11">
-        <v>1.919867293618168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.307732866655044</v>
+        <v>6.762744275770842</v>
       </c>
       <c r="C12">
-        <v>0.8139205384620709</v>
+        <v>1.193138094081917</v>
       </c>
       <c r="D12">
-        <v>0.0100860822217328</v>
+        <v>0.0457594887802486</v>
       </c>
       <c r="E12">
-        <v>0.02765762228784352</v>
+        <v>0.02981052111829996</v>
       </c>
       <c r="F12">
-        <v>2.624963153488579</v>
+        <v>4.276297912198146</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05358795449109266</v>
+        <v>0.05343894983110342</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.250054417383808</v>
+        <v>0.2502271559266092</v>
       </c>
       <c r="M12">
-        <v>0.8579232675284914</v>
+        <v>1.04573130172281</v>
       </c>
       <c r="N12">
-        <v>0.9560441832642468</v>
+        <v>1.654946487461189</v>
       </c>
       <c r="O12">
-        <v>1.953348198058691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.278592982162081</v>
+        <v>6.725016914443756</v>
       </c>
       <c r="C13">
-        <v>0.8092257720194027</v>
+        <v>1.185847020241397</v>
       </c>
       <c r="D13">
-        <v>0.01002578577908686</v>
+        <v>0.0454448436431889</v>
       </c>
       <c r="E13">
-        <v>0.02764558817655294</v>
+        <v>0.02971583978824288</v>
       </c>
       <c r="F13">
-        <v>2.615548965579976</v>
+        <v>4.259233629111407</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05365231428205064</v>
+        <v>0.05347501919091835</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2489705737804826</v>
+        <v>0.2491326355143286</v>
       </c>
       <c r="M13">
-        <v>0.8533644790406996</v>
+        <v>1.040086569837918</v>
       </c>
       <c r="N13">
-        <v>0.9593182400303562</v>
+        <v>1.65631957404436</v>
       </c>
       <c r="O13">
-        <v>1.946098180020925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.183802810153509</v>
+        <v>6.60245730841541</v>
       </c>
       <c r="C14">
-        <v>0.7939486980411914</v>
+        <v>1.162157601127944</v>
       </c>
       <c r="D14">
-        <v>0.00983072644959293</v>
+        <v>0.04442610520322177</v>
       </c>
       <c r="E14">
-        <v>0.02760670526354359</v>
+        <v>0.02940837045961775</v>
       </c>
       <c r="F14">
-        <v>2.585038368779408</v>
+        <v>4.203938939751026</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05386268892602786</v>
+        <v>0.05359287809839941</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2454465258055336</v>
+        <v>0.2455783506954958</v>
       </c>
       <c r="M14">
-        <v>0.838536131114445</v>
+        <v>1.021750268532593</v>
       </c>
       <c r="N14">
-        <v>0.9700584939543475</v>
+        <v>1.660896822787706</v>
       </c>
       <c r="O14">
-        <v>1.922604224018087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.125922968225382</v>
+        <v>6.527745068323384</v>
       </c>
       <c r="C15">
-        <v>0.7846162638662122</v>
+        <v>1.147713436031609</v>
       </c>
       <c r="D15">
-        <v>0.009712431288377843</v>
+        <v>0.04380763666355136</v>
       </c>
       <c r="E15">
-        <v>0.0275831618766107</v>
+        <v>0.0292210121736467</v>
       </c>
       <c r="F15">
-        <v>2.566494294000719</v>
+        <v>4.170337352871229</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05399192211634363</v>
+        <v>0.05366524642880766</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2432959600305225</v>
+        <v>0.2434126967166748</v>
       </c>
       <c r="M15">
-        <v>0.8294826394761898</v>
+        <v>1.01057321605613</v>
       </c>
       <c r="N15">
-        <v>0.9766850120810702</v>
+        <v>1.663775681938162</v>
       </c>
       <c r="O15">
-        <v>1.908326858576771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.796881980730234</v>
+        <v>6.104790132677806</v>
       </c>
       <c r="C16">
-        <v>0.7314987937193393</v>
+        <v>1.065892060108581</v>
       </c>
       <c r="D16">
-        <v>0.009051482734270699</v>
+        <v>0.04034284635085328</v>
       </c>
       <c r="E16">
-        <v>0.02745222348543264</v>
+        <v>0.02816115237346128</v>
       </c>
       <c r="F16">
-        <v>2.462348699846586</v>
+        <v>3.981678574463984</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05473826567677431</v>
+        <v>0.05408268292297791</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2310895385573275</v>
+        <v>0.2311689517537303</v>
       </c>
       <c r="M16">
-        <v>0.7780275924721636</v>
+        <v>0.9473103830727965</v>
       </c>
       <c r="N16">
-        <v>1.015372085487009</v>
+        <v>1.68137955673231</v>
       </c>
       <c r="O16">
-        <v>1.828172632494258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.59723721284405</v>
+        <v>5.849630043621573</v>
       </c>
       <c r="C17">
-        <v>0.6992122720489817</v>
+        <v>1.016481383721441</v>
       </c>
       <c r="D17">
-        <v>0.008659899695899753</v>
+        <v>0.03828253628807232</v>
       </c>
       <c r="E17">
-        <v>0.02737522799259384</v>
+        <v>0.02752212387258623</v>
       </c>
       <c r="F17">
-        <v>2.400256574764526</v>
+        <v>3.869204918208254</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05520131467963996</v>
+        <v>0.05434121882752052</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2237007446916692</v>
+        <v>0.2237975835982411</v>
       </c>
       <c r="M17">
-        <v>0.7468192640573577</v>
+        <v>0.9091562217101625</v>
       </c>
       <c r="N17">
-        <v>1.039721387907413</v>
+        <v>1.693118997593587</v>
       </c>
       <c r="O17">
-        <v>1.780407900297803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.483162799186971</v>
+        <v>5.704330984433284</v>
       </c>
       <c r="C18">
-        <v>0.680742609006586</v>
+        <v>0.9883251788745326</v>
       </c>
       <c r="D18">
-        <v>0.008439308099796428</v>
+        <v>0.03711936871624033</v>
       </c>
       <c r="E18">
-        <v>0.02733208381109975</v>
+        <v>0.02715823819205454</v>
       </c>
       <c r="F18">
-        <v>2.365166802476125</v>
+        <v>3.805630736170656</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05546957571214595</v>
+        <v>0.05449083218762096</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2194853651840134</v>
+        <v>0.2196057420642461</v>
       </c>
       <c r="M18">
-        <v>0.7289916753918746</v>
+        <v>0.8874338542846019</v>
       </c>
       <c r="N18">
-        <v>1.053945124856881</v>
+        <v>1.700198982249219</v>
       </c>
       <c r="O18">
-        <v>1.753422735568108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.444663843205262</v>
+        <v>5.655375440511989</v>
       </c>
       <c r="C19">
-        <v>0.6745055454453563</v>
+        <v>0.9788350135149244</v>
       </c>
       <c r="D19">
-        <v>0.008365373785014008</v>
+        <v>0.03672910776476357</v>
       </c>
       <c r="E19">
-        <v>0.02731766457587037</v>
+        <v>0.02703562358261991</v>
       </c>
       <c r="F19">
-        <v>2.353389832462312</v>
+        <v>3.784290259125498</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05556073714346743</v>
+        <v>0.05454164594647315</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2180638381601341</v>
+        <v>0.2181943903985939</v>
       </c>
       <c r="M19">
-        <v>0.7229758153669579</v>
+        <v>0.8801156939409367</v>
       </c>
       <c r="N19">
-        <v>1.058797889868167</v>
+        <v>1.702650846710625</v>
       </c>
       <c r="O19">
-        <v>1.744367139892233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.618410259118889</v>
+        <v>5.876638298600199</v>
       </c>
       <c r="C20">
-        <v>0.7026386028562683</v>
+        <v>1.021713428266196</v>
       </c>
       <c r="D20">
-        <v>0.008701094360979766</v>
+        <v>0.03849955110024439</v>
       </c>
       <c r="E20">
-        <v>0.02738330435454994</v>
+        <v>0.02758976067552243</v>
       </c>
       <c r="F20">
-        <v>2.406801004914783</v>
+        <v>3.88106049176497</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05515182326770329</v>
+        <v>0.054313603233068</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2244836822825107</v>
+        <v>0.2245772394955168</v>
       </c>
       <c r="M20">
-        <v>0.7501285603521737</v>
+        <v>0.9131943374163214</v>
       </c>
       <c r="N20">
-        <v>1.037106563382004</v>
+        <v>1.69183500775911</v>
       </c>
       <c r="O20">
-        <v>1.785441405787736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.211606728652328</v>
+        <v>6.638380435645786</v>
       </c>
       <c r="C21">
-        <v>0.7984306324420061</v>
+        <v>1.169101785745283</v>
       </c>
       <c r="D21">
-        <v>0.00988777033465027</v>
+        <v>0.04472416563280746</v>
       </c>
       <c r="E21">
-        <v>0.02761806858964899</v>
+        <v>0.02949847552558804</v>
       </c>
       <c r="F21">
-        <v>2.593969720220741</v>
+        <v>4.220123960187379</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05380081925346758</v>
+        <v>0.0535582233761529</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2464799408433294</v>
+        <v>0.2466199229787236</v>
       </c>
       <c r="M21">
-        <v>0.8428854157850765</v>
+        <v>1.02712462028861</v>
       </c>
       <c r="N21">
-        <v>0.9668938111460932</v>
+        <v>1.659536597036464</v>
       </c>
       <c r="O21">
-        <v>1.929481162604532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.607279518256462</v>
+        <v>7.151958544573517</v>
       </c>
       <c r="C22">
-        <v>0.8621391969382444</v>
+        <v>1.268327404071442</v>
       </c>
       <c r="D22">
-        <v>0.01071504912758314</v>
+        <v>0.04903436685081175</v>
       </c>
       <c r="E22">
-        <v>0.02778351453388606</v>
+        <v>0.03078838951536333</v>
       </c>
       <c r="F22">
-        <v>2.722663923210007</v>
+        <v>4.453492546464645</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05293459265665224</v>
+        <v>0.0530724563855216</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2612087767703031</v>
+        <v>0.2615291175300314</v>
       </c>
       <c r="M22">
-        <v>0.9047944962083321</v>
+        <v>1.103972477729151</v>
       </c>
       <c r="N22">
-        <v>0.9231239872506336</v>
+        <v>1.641742910387791</v>
       </c>
       <c r="O22">
-        <v>2.028612602992382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.395306032542123</v>
+        <v>6.876269137348515</v>
       </c>
       <c r="C23">
-        <v>0.828025102833152</v>
+        <v>1.215074347917323</v>
       </c>
       <c r="D23">
-        <v>0.01026823410510413</v>
+        <v>0.04670926116862262</v>
       </c>
       <c r="E23">
-        <v>0.02769401598150356</v>
+        <v>0.03009552924931924</v>
       </c>
       <c r="F23">
-        <v>2.653352602948416</v>
+        <v>4.327766267110377</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05339540510330387</v>
+        <v>0.0533310034968939</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.253313032237088</v>
+        <v>0.2535217763842184</v>
       </c>
       <c r="M23">
-        <v>0.871624575776579</v>
+        <v>1.06271757538105</v>
       </c>
       <c r="N23">
-        <v>0.9462820687613203</v>
+        <v>1.650915415680146</v>
       </c>
       <c r="O23">
-        <v>1.975213784678601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.608835745361432</v>
+        <v>5.864423547224078</v>
       </c>
       <c r="C24">
-        <v>0.7010892734328138</v>
+        <v>1.019347245998517</v>
       </c>
       <c r="D24">
-        <v>0.008682456238261693</v>
+        <v>0.03840137275360433</v>
       </c>
       <c r="E24">
-        <v>0.02737964955734506</v>
+        <v>0.02755917127631324</v>
       </c>
       <c r="F24">
-        <v>2.403840383476052</v>
+        <v>3.875697215892643</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05517419195130202</v>
+        <v>0.0543260851959575</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2241296153455323</v>
+        <v>0.2242246144071629</v>
       </c>
       <c r="M24">
-        <v>0.7486320729495901</v>
+        <v>0.9113680461948306</v>
       </c>
       <c r="N24">
-        <v>1.038288026551285</v>
+        <v>1.692414473293653</v>
       </c>
       <c r="O24">
-        <v>1.78316428404824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.788834019244632</v>
+        <v>4.827757088455371</v>
       </c>
       <c r="C25">
-        <v>0.5679255655884674</v>
+        <v>0.8180706383514291</v>
       </c>
       <c r="D25">
-        <v>0.007144814510200881</v>
+        <v>0.03025717133576933</v>
       </c>
       <c r="E25">
-        <v>0.02708343724708584</v>
+        <v>0.0249596100052063</v>
       </c>
       <c r="F25">
-        <v>2.158189251458197</v>
+        <v>3.430042188887001</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05716680554582787</v>
+        <v>0.05543437899899661</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1939469549079362</v>
+        <v>0.1944251655769449</v>
       </c>
       <c r="M25">
-        <v>0.6205638811726288</v>
+        <v>0.7564664464513058</v>
       </c>
       <c r="N25">
-        <v>1.145814804378844</v>
+        <v>1.749546169694511</v>
       </c>
       <c r="O25">
-        <v>1.594366045383651</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.099481059537823</v>
+        <v>3.975606546170582</v>
       </c>
       <c r="C2">
-        <v>0.6758976470247546</v>
+        <v>0.2864795845893013</v>
       </c>
       <c r="D2">
-        <v>0.02475920075254123</v>
+        <v>0.008536791027573543</v>
       </c>
       <c r="E2">
-        <v>0.0231205536888579</v>
+        <v>0.04218811757406282</v>
       </c>
       <c r="F2">
-        <v>3.129957104242081</v>
+        <v>4.77886095270901</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05628174332871172</v>
+        <v>0.1229205902999615</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1736947582853077</v>
+        <v>0.3265923476160779</v>
       </c>
       <c r="M2">
-        <v>0.6478008419449282</v>
+        <v>0.7321708664111028</v>
       </c>
       <c r="N2">
-        <v>1.80052783645678</v>
+        <v>3.259197752174245</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.622732101747999</v>
+        <v>3.881884048324139</v>
       </c>
       <c r="C3">
-        <v>0.5822937478007759</v>
+        <v>0.2634821436229231</v>
       </c>
       <c r="D3">
-        <v>0.0212610176883743</v>
+        <v>0.007445546138448833</v>
       </c>
       <c r="E3">
-        <v>0.02190387136263094</v>
+        <v>0.04177184720882821</v>
       </c>
       <c r="F3">
-        <v>2.940734420800055</v>
+        <v>4.757142986330976</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05687620886808542</v>
+        <v>0.1231051025488905</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1602592203783786</v>
+        <v>0.325325740671893</v>
       </c>
       <c r="M3">
-        <v>0.5767697096831839</v>
+        <v>0.7192830793392204</v>
       </c>
       <c r="N3">
-        <v>1.83992857645525</v>
+        <v>3.275525839364903</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.33686231178541</v>
+        <v>3.826681723177046</v>
       </c>
       <c r="C4">
-        <v>0.5258888303618505</v>
+        <v>0.2495364413009611</v>
       </c>
       <c r="D4">
-        <v>0.01920214715250523</v>
+        <v>0.006775747241597685</v>
       </c>
       <c r="E4">
-        <v>0.0211666700265658</v>
+        <v>0.04151075920721059</v>
       </c>
       <c r="F4">
-        <v>2.830573333924804</v>
+        <v>4.746015564320658</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05725138689666531</v>
+        <v>0.123223871941113</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1522719594254767</v>
+        <v>0.3246897639079336</v>
       </c>
       <c r="M4">
-        <v>0.5342314022020531</v>
+        <v>0.7117789697486501</v>
       </c>
       <c r="N4">
-        <v>1.866310326903957</v>
+        <v>3.286377293792881</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.221900475434325</v>
+        <v>3.804774224173968</v>
       </c>
       <c r="C5">
-        <v>0.5031337406537659</v>
+        <v>0.243896892001942</v>
       </c>
       <c r="D5">
-        <v>0.01838242561058934</v>
+        <v>0.006502784756978741</v>
       </c>
       <c r="E5">
-        <v>0.02086809822085733</v>
+        <v>0.04140296628153717</v>
       </c>
       <c r="F5">
-        <v>2.78706814893691</v>
+        <v>4.742034781527224</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05740686225516178</v>
+        <v>0.1232736517028687</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1490776216020606</v>
+        <v>0.3244662581943274</v>
       </c>
       <c r="M5">
-        <v>0.5171385426186319</v>
+        <v>0.7088236774715142</v>
       </c>
       <c r="N5">
-        <v>1.877584328562392</v>
+        <v>3.291006579176511</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.202898420377437</v>
+        <v>3.80117196715338</v>
       </c>
       <c r="C6">
-        <v>0.4993681357658772</v>
+        <v>0.2429630575609849</v>
       </c>
       <c r="D6">
-        <v>0.01824739120747765</v>
+        <v>0.006457456608661261</v>
       </c>
       <c r="E6">
-        <v>0.02081861465085222</v>
+        <v>0.04138498249892208</v>
       </c>
       <c r="F6">
-        <v>2.779924346056234</v>
+        <v>4.741407180372192</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05743283592106607</v>
+        <v>0.1232820010401992</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1485507114425388</v>
+        <v>0.3244312997042442</v>
       </c>
       <c r="M6">
-        <v>0.5143141071112325</v>
+        <v>0.7083391512283299</v>
       </c>
       <c r="N6">
-        <v>1.879487215987425</v>
+        <v>3.291787771275096</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.335305932562733</v>
+        <v>3.826383892514343</v>
       </c>
       <c r="C7">
-        <v>0.5255810625615993</v>
+        <v>0.2494602091702234</v>
       </c>
       <c r="D7">
-        <v>0.01919101789917832</v>
+        <v>0.006772066125005693</v>
       </c>
       <c r="E7">
-        <v>0.02116263670796759</v>
+        <v>0.04150931115203882</v>
       </c>
       <c r="F7">
-        <v>2.82998115559036</v>
+        <v>4.745959637885662</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05725347317793084</v>
+        <v>0.1232245376962005</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1522286411570377</v>
+        <v>0.3246866052155681</v>
       </c>
       <c r="M7">
-        <v>0.5339999385497052</v>
+        <v>0.7117386980587455</v>
       </c>
       <c r="N7">
-        <v>1.866460287874389</v>
+        <v>3.286438887534246</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.933554198115417</v>
+        <v>3.942803682930617</v>
       </c>
       <c r="C8">
-        <v>0.6433771478621395</v>
+        <v>0.2785134594909664</v>
       </c>
       <c r="D8">
-        <v>0.02353258393753066</v>
+        <v>0.008160438470966369</v>
       </c>
       <c r="E8">
-        <v>0.02269859676024577</v>
+        <v>0.04204571897037912</v>
       </c>
       <c r="F8">
-        <v>3.063382439585425</v>
+        <v>4.770913588035484</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05648462118210107</v>
+        <v>0.1229830748068634</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1690043567183466</v>
+        <v>0.3261262180840561</v>
       </c>
       <c r="M8">
-        <v>0.623068196024775</v>
+        <v>0.7276421536213817</v>
       </c>
       <c r="N8">
-        <v>1.813641520526375</v>
+        <v>3.264655974072696</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.170784290626955</v>
+        <v>4.189782338302109</v>
       </c>
       <c r="C9">
-        <v>0.8847866348231719</v>
+        <v>0.3369008100935673</v>
       </c>
       <c r="D9">
-        <v>0.03291081486464265</v>
+        <v>0.01088821020021413</v>
       </c>
       <c r="E9">
-        <v>0.02582109126537979</v>
+        <v>0.04305472707341274</v>
       </c>
       <c r="F9">
-        <v>3.575314734748616</v>
+        <v>4.837433824306828</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05505626818117371</v>
+        <v>0.1225529035408757</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2042543870285058</v>
+        <v>0.3300734479397534</v>
       </c>
       <c r="M9">
-        <v>0.8076989604109599</v>
+        <v>0.7620846647675137</v>
       </c>
       <c r="N9">
-        <v>1.728811803681836</v>
+        <v>3.228514076392116</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.134112404143934</v>
+        <v>4.382768886533199</v>
       </c>
       <c r="C10">
-        <v>1.071567611621333</v>
+        <v>0.3807021077580544</v>
       </c>
       <c r="D10">
-        <v>0.04058105373380982</v>
+        <v>0.0129002702936134</v>
       </c>
       <c r="E10">
-        <v>0.02823459751180035</v>
+        <v>0.04377095092723415</v>
       </c>
       <c r="F10">
-        <v>3.994669801897658</v>
+        <v>4.897136646087631</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05405330485802029</v>
+        <v>0.1222630884284368</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2320168170540597</v>
+        <v>0.3336591854334614</v>
       </c>
       <c r="M10">
-        <v>0.9516955168188019</v>
+        <v>0.7893929252098033</v>
       </c>
       <c r="N10">
-        <v>1.680085670157197</v>
+        <v>3.205997497605452</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.588149011248845</v>
+        <v>4.473100869906489</v>
       </c>
       <c r="C11">
-        <v>1.159391557315246</v>
+        <v>0.4008342669046101</v>
       </c>
       <c r="D11">
-        <v>0.04430751129514476</v>
+        <v>0.01381839404302099</v>
       </c>
       <c r="E11">
-        <v>0.02937248493226363</v>
+        <v>0.04409156101890321</v>
       </c>
       <c r="F11">
-        <v>4.197497570268865</v>
+        <v>4.926673709018758</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05360670666210776</v>
+        <v>0.1221369000661001</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2451635397851248</v>
+        <v>0.3354395026590709</v>
       </c>
       <c r="M11">
-        <v>1.019609683299059</v>
+        <v>0.8022555433902596</v>
       </c>
       <c r="N11">
-        <v>1.661442929713857</v>
+        <v>3.196637113979094</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.762744275770842</v>
+        <v>4.507674978685202</v>
       </c>
       <c r="C12">
-        <v>1.193138094081917</v>
+        <v>0.4084882060028008</v>
       </c>
       <c r="D12">
-        <v>0.0457594887802486</v>
+        <v>0.01416655371507147</v>
       </c>
       <c r="E12">
-        <v>0.02981052111829996</v>
+        <v>0.0442122372067697</v>
       </c>
       <c r="F12">
-        <v>4.276297912198146</v>
+        <v>4.938202442106927</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05343894983110342</v>
+        <v>0.1220899254591457</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2502271559266092</v>
+        <v>0.336135112240683</v>
       </c>
       <c r="M12">
-        <v>1.04573130172281</v>
+        <v>0.8071898374476945</v>
       </c>
       <c r="N12">
-        <v>1.654946487461189</v>
+        <v>3.193220043669839</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.725016914443756</v>
+        <v>4.500212457105818</v>
       </c>
       <c r="C13">
-        <v>1.185847020241397</v>
+        <v>0.4068384347850724</v>
       </c>
       <c r="D13">
-        <v>0.0454448436431889</v>
+        <v>0.01409154840370519</v>
       </c>
       <c r="E13">
-        <v>0.02971583978824288</v>
+        <v>0.04418627971910816</v>
       </c>
       <c r="F13">
-        <v>4.259233629111407</v>
+        <v>4.935704209360836</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05347501919091835</v>
+        <v>0.1221000062838629</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2491326355143286</v>
+        <v>0.3359843466874253</v>
       </c>
       <c r="M13">
-        <v>1.040086569837918</v>
+        <v>0.8061243209282054</v>
       </c>
       <c r="N13">
-        <v>1.65631957404436</v>
+        <v>3.193950290483215</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.60245730841541</v>
+        <v>4.475937929408587</v>
       </c>
       <c r="C14">
-        <v>1.162157601127944</v>
+        <v>0.4014633497993714</v>
       </c>
       <c r="D14">
-        <v>0.04442610520322177</v>
+        <v>0.01384702714618413</v>
       </c>
       <c r="E14">
-        <v>0.02940837045961775</v>
+        <v>0.04410150369531252</v>
       </c>
       <c r="F14">
-        <v>4.203938939751026</v>
+        <v>4.927615286687569</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05359287809839941</v>
+        <v>0.1221330192122259</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2455783506954958</v>
+        <v>0.3354963011682202</v>
       </c>
       <c r="M14">
-        <v>1.021750268532593</v>
+        <v>0.8026602167245471</v>
       </c>
       <c r="N14">
-        <v>1.660896822787706</v>
+        <v>3.19635343071964</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.527745068323384</v>
+        <v>4.461116976903384</v>
       </c>
       <c r="C15">
-        <v>1.147713436031609</v>
+        <v>0.3981749225540625</v>
       </c>
       <c r="D15">
-        <v>0.04380763666355136</v>
+        <v>0.0136973165014922</v>
       </c>
       <c r="E15">
-        <v>0.0292210121736467</v>
+        <v>0.04404948110785512</v>
       </c>
       <c r="F15">
-        <v>4.170337352871229</v>
+        <v>4.922705398717312</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05366524642880766</v>
+        <v>0.1221533460277242</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2434126967166748</v>
+        <v>0.3352001514737282</v>
       </c>
       <c r="M15">
-        <v>1.01057321605613</v>
+        <v>0.8005466295437884</v>
       </c>
       <c r="N15">
-        <v>1.663775681938162</v>
+        <v>3.19784204619576</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.104790132677806</v>
+        <v>4.376916779492433</v>
       </c>
       <c r="C16">
-        <v>1.065892060108581</v>
+        <v>0.3793906347689813</v>
       </c>
       <c r="D16">
-        <v>0.04034284635085328</v>
+        <v>0.01284033242341565</v>
       </c>
       <c r="E16">
-        <v>0.02816115237346128</v>
+        <v>0.04374989498915927</v>
       </c>
       <c r="F16">
-        <v>3.981678574463984</v>
+        <v>4.895254328031314</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05408268292297791</v>
+        <v>0.1222714486314329</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2311689517537303</v>
+        <v>0.3335458382545369</v>
       </c>
       <c r="M16">
-        <v>0.9473103830727965</v>
+        <v>0.788561195721023</v>
       </c>
       <c r="N16">
-        <v>1.68137955673231</v>
+        <v>3.206627030179902</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.849630043621573</v>
+        <v>4.325914935094318</v>
       </c>
       <c r="C17">
-        <v>1.016481383721441</v>
+        <v>0.367920454380112</v>
       </c>
       <c r="D17">
-        <v>0.03828253628807232</v>
+        <v>0.0123153809605725</v>
       </c>
       <c r="E17">
-        <v>0.02752212387258623</v>
+        <v>0.0435647874237679</v>
       </c>
       <c r="F17">
-        <v>3.869204918208254</v>
+        <v>4.879024262666434</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05434121882752052</v>
+        <v>0.1223453462207651</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2237975835982411</v>
+        <v>0.3325691665524459</v>
       </c>
       <c r="M17">
-        <v>0.9091562217101625</v>
+        <v>0.7813213671413024</v>
       </c>
       <c r="N17">
-        <v>1.693118997593587</v>
+        <v>3.212242790549539</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.704330984433284</v>
+        <v>4.296819118230644</v>
       </c>
       <c r="C18">
-        <v>0.9883251788745326</v>
+        <v>0.361342531786363</v>
       </c>
       <c r="D18">
-        <v>0.03711936871624033</v>
+        <v>0.0120137040931283</v>
       </c>
       <c r="E18">
-        <v>0.02715823819205454</v>
+        <v>0.04345782765807549</v>
       </c>
       <c r="F18">
-        <v>3.805630736170656</v>
+        <v>4.869912875786014</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05449083218762096</v>
+        <v>0.1223883820969602</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2196057420642461</v>
+        <v>0.3320214494425926</v>
       </c>
       <c r="M18">
-        <v>0.8874338542846019</v>
+        <v>0.7771986051275022</v>
       </c>
       <c r="N18">
-        <v>1.700198982249219</v>
+        <v>3.215555858055126</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.655375440511989</v>
+        <v>4.287008782698422</v>
       </c>
       <c r="C19">
-        <v>0.9788350135149244</v>
+        <v>0.3591186778294571</v>
       </c>
       <c r="D19">
-        <v>0.03672910776476357</v>
+        <v>0.01191160396502511</v>
       </c>
       <c r="E19">
-        <v>0.02703562358261991</v>
+        <v>0.0434215281288397</v>
       </c>
       <c r="F19">
-        <v>3.784290259125498</v>
+        <v>4.866866287940411</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05454164594647315</v>
+        <v>0.1224030447351998</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2181943903985939</v>
+        <v>0.3318384131764986</v>
       </c>
       <c r="M19">
-        <v>0.8801156939409367</v>
+        <v>0.7758098115236507</v>
       </c>
       <c r="N19">
-        <v>1.702650846710625</v>
+        <v>3.216691848298851</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.876638298600199</v>
+        <v>4.331319409556215</v>
       </c>
       <c r="C20">
-        <v>1.021713428266196</v>
+        <v>0.3691394602715832</v>
       </c>
       <c r="D20">
-        <v>0.03849955110024439</v>
+        <v>0.01237123531925732</v>
       </c>
       <c r="E20">
-        <v>0.02758976067552243</v>
+        <v>0.04358454311684046</v>
       </c>
       <c r="F20">
-        <v>3.88106049176497</v>
+        <v>4.880728814435173</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.054313603233068</v>
+        <v>0.1223374246592095</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2245772394955168</v>
+        <v>0.3326716820229478</v>
       </c>
       <c r="M20">
-        <v>0.9131943374163214</v>
+        <v>0.7820877732636191</v>
       </c>
       <c r="N20">
-        <v>1.69183500775911</v>
+        <v>3.21163638561417</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.638380435645786</v>
+        <v>4.483057961541022</v>
       </c>
       <c r="C21">
-        <v>1.169101785745283</v>
+        <v>0.4030413146423939</v>
       </c>
       <c r="D21">
-        <v>0.04472416563280746</v>
+        <v>0.01391883513482384</v>
       </c>
       <c r="E21">
-        <v>0.02949847552558804</v>
+        <v>0.04412642420055235</v>
       </c>
       <c r="F21">
-        <v>4.220123960187379</v>
+        <v>4.929981857672459</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0535582233761529</v>
+        <v>0.1221233005445188</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2466199229787236</v>
+        <v>0.3356390700652696</v>
       </c>
       <c r="M21">
-        <v>1.02712462028861</v>
+        <v>0.8036759828175732</v>
       </c>
       <c r="N21">
-        <v>1.659536597036464</v>
+        <v>3.195644104939291</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.151958544573517</v>
+        <v>4.584369978590246</v>
       </c>
       <c r="C22">
-        <v>1.268327404071442</v>
+        <v>0.4253751936075219</v>
       </c>
       <c r="D22">
-        <v>0.04903436685081175</v>
+        <v>0.01493315219644842</v>
       </c>
       <c r="E22">
-        <v>0.03078838951536333</v>
+        <v>0.04447631648999106</v>
       </c>
       <c r="F22">
-        <v>4.453492546464645</v>
+        <v>4.964175683777142</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0530724563855216</v>
+        <v>0.121988079420023</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2615291175300314</v>
+        <v>0.3377034097486558</v>
       </c>
       <c r="M22">
-        <v>1.103972477729151</v>
+        <v>0.8181553663516041</v>
       </c>
       <c r="N22">
-        <v>1.641742910387791</v>
+        <v>3.185935700009523</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.876269137348515</v>
+        <v>4.530101204993741</v>
       </c>
       <c r="C23">
-        <v>1.215074347917323</v>
+        <v>0.4134387802268975</v>
       </c>
       <c r="D23">
-        <v>0.04670926116862262</v>
+        <v>0.01439150286874025</v>
       </c>
       <c r="E23">
-        <v>0.03009552924931924</v>
+        <v>0.04428995656822732</v>
       </c>
       <c r="F23">
-        <v>4.327766267110377</v>
+        <v>4.94574183283612</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0533310034968939</v>
+        <v>0.1220598182157464</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2535217763842184</v>
+        <v>0.3365901982489277</v>
       </c>
       <c r="M23">
-        <v>1.06271757538105</v>
+        <v>0.8103934897451168</v>
       </c>
       <c r="N23">
-        <v>1.650915415680146</v>
+        <v>3.191049029965484</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.864423547224078</v>
+        <v>4.328875343406082</v>
       </c>
       <c r="C24">
-        <v>1.019347245998517</v>
+        <v>0.3685882965550604</v>
       </c>
       <c r="D24">
-        <v>0.03840137275360433</v>
+        <v>0.01234598318074376</v>
       </c>
       <c r="E24">
-        <v>0.02755917127631324</v>
+        <v>0.04357561324786019</v>
       </c>
       <c r="F24">
-        <v>3.875697215892643</v>
+        <v>4.879957503037019</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0543260851959575</v>
+        <v>0.1223410042803068</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2242246144071629</v>
+        <v>0.3326252918428168</v>
       </c>
       <c r="M24">
-        <v>0.9113680461948306</v>
+        <v>0.781741158002589</v>
       </c>
       <c r="N24">
-        <v>1.692414473293653</v>
+        <v>3.211910278156722</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.827757088455371</v>
+        <v>4.120953628334007</v>
       </c>
       <c r="C25">
-        <v>0.8180706383514291</v>
+        <v>0.3209497907130583</v>
       </c>
       <c r="D25">
-        <v>0.03025717133576933</v>
+        <v>0.0101492271352015</v>
       </c>
       <c r="E25">
-        <v>0.0249596100052063</v>
+        <v>0.04278624686193311</v>
       </c>
       <c r="F25">
-        <v>3.430042188887001</v>
+        <v>4.817544464093316</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05543437899899661</v>
+        <v>0.122664656284277</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1944251655769449</v>
+        <v>0.3288852361704073</v>
       </c>
       <c r="M25">
-        <v>0.7564664464513058</v>
+        <v>0.7524166107988961</v>
       </c>
       <c r="N25">
-        <v>1.749546169694511</v>
+        <v>3.237584629830593</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.975606546170582</v>
+        <v>4.099481059537823</v>
       </c>
       <c r="C2">
-        <v>0.2864795845893013</v>
+        <v>0.6758976470247546</v>
       </c>
       <c r="D2">
-        <v>0.008536791027573543</v>
+        <v>0.02475920075253413</v>
       </c>
       <c r="E2">
-        <v>0.04218811757406282</v>
+        <v>0.02312055368891652</v>
       </c>
       <c r="F2">
-        <v>4.77886095270901</v>
+        <v>3.129957104242081</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1229205902999615</v>
+        <v>0.05628174332876057</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3265923476160779</v>
+        <v>0.1736947582851229</v>
       </c>
       <c r="M2">
-        <v>0.7321708664111028</v>
+        <v>0.6478008419449566</v>
       </c>
       <c r="N2">
-        <v>3.259197752174245</v>
+        <v>1.800527836456851</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.881884048324139</v>
+        <v>3.622732101748113</v>
       </c>
       <c r="C3">
-        <v>0.2634821436229231</v>
+        <v>0.5822937478007759</v>
       </c>
       <c r="D3">
-        <v>0.007445546138448833</v>
+        <v>0.0212610176882535</v>
       </c>
       <c r="E3">
-        <v>0.04177184720882821</v>
+        <v>0.02190387136262917</v>
       </c>
       <c r="F3">
-        <v>4.757142986330976</v>
+        <v>2.940734420800041</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1231051025488905</v>
+        <v>0.05687620886807077</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.325325740671893</v>
+        <v>0.1602592203784141</v>
       </c>
       <c r="M3">
-        <v>0.7192830793392204</v>
+        <v>0.5767697096831839</v>
       </c>
       <c r="N3">
-        <v>3.275525839364903</v>
+        <v>1.839928576455293</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.826681723177046</v>
+        <v>3.336862311785467</v>
       </c>
       <c r="C4">
-        <v>0.2495364413009611</v>
+        <v>0.5258888303617937</v>
       </c>
       <c r="D4">
-        <v>0.006775747241597685</v>
+        <v>0.01920214715272195</v>
       </c>
       <c r="E4">
-        <v>0.04151075920721059</v>
+        <v>0.02116667002657469</v>
       </c>
       <c r="F4">
-        <v>4.746015564320658</v>
+        <v>2.830573333924761</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.123223871941113</v>
+        <v>0.05725138689668618</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3246897639079336</v>
+        <v>0.152271959425434</v>
       </c>
       <c r="M4">
-        <v>0.7117789697486501</v>
+        <v>0.5342314022020389</v>
       </c>
       <c r="N4">
-        <v>3.286377293792881</v>
+        <v>1.866310326903928</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.804774224173968</v>
+        <v>3.221900475434154</v>
       </c>
       <c r="C5">
-        <v>0.243896892001942</v>
+        <v>0.5031337406535386</v>
       </c>
       <c r="D5">
-        <v>0.006502784756978741</v>
+        <v>0.0183824256106</v>
       </c>
       <c r="E5">
-        <v>0.04140296628153717</v>
+        <v>0.02086809822086177</v>
       </c>
       <c r="F5">
-        <v>4.742034781527224</v>
+        <v>2.787068148936925</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1232736517028687</v>
+        <v>0.05740686225512093</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3244662581943274</v>
+        <v>0.149077621602018</v>
       </c>
       <c r="M5">
-        <v>0.7088236774715142</v>
+        <v>0.5171385426186461</v>
       </c>
       <c r="N5">
-        <v>3.291006579176511</v>
+        <v>1.877584328562392</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.80117196715338</v>
+        <v>3.202898420377494</v>
       </c>
       <c r="C6">
-        <v>0.2429630575609849</v>
+        <v>0.4993681357658488</v>
       </c>
       <c r="D6">
-        <v>0.006457456608661261</v>
+        <v>0.01824739120758778</v>
       </c>
       <c r="E6">
-        <v>0.04138498249892208</v>
+        <v>0.02081861465086199</v>
       </c>
       <c r="F6">
-        <v>4.741407180372192</v>
+        <v>2.779924346056262</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1232820010401992</v>
+        <v>0.05743283592110737</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3244312997042442</v>
+        <v>0.1485507114425317</v>
       </c>
       <c r="M6">
-        <v>0.7083391512283299</v>
+        <v>0.5143141071112112</v>
       </c>
       <c r="N6">
-        <v>3.291787771275096</v>
+        <v>1.879487215987425</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.826383892514343</v>
+        <v>3.335305932562676</v>
       </c>
       <c r="C7">
-        <v>0.2494602091702234</v>
+        <v>0.5255810625613435</v>
       </c>
       <c r="D7">
-        <v>0.006772066125005693</v>
+        <v>0.01919101789916766</v>
       </c>
       <c r="E7">
-        <v>0.04150931115203882</v>
+        <v>0.02116263670793739</v>
       </c>
       <c r="F7">
-        <v>4.745959637885662</v>
+        <v>2.829981155590303</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1232245376962005</v>
+        <v>0.05725347317790419</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3246866052155681</v>
+        <v>0.1522286411570732</v>
       </c>
       <c r="M7">
-        <v>0.7117386980587455</v>
+        <v>0.5339999385496981</v>
       </c>
       <c r="N7">
-        <v>3.286438887534246</v>
+        <v>1.866460287874332</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.942803682930617</v>
+        <v>3.933554198115417</v>
       </c>
       <c r="C8">
-        <v>0.2785134594909664</v>
+        <v>0.6433771478623953</v>
       </c>
       <c r="D8">
-        <v>0.008160438470966369</v>
+        <v>0.02353258393741697</v>
       </c>
       <c r="E8">
-        <v>0.04204571897037912</v>
+        <v>0.02269859676027597</v>
       </c>
       <c r="F8">
-        <v>4.770913588035484</v>
+        <v>3.063382439585467</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1229830748068634</v>
+        <v>0.05648462118204955</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3261262180840561</v>
+        <v>0.1690043567184105</v>
       </c>
       <c r="M8">
-        <v>0.7276421536213817</v>
+        <v>0.6230681960247892</v>
       </c>
       <c r="N8">
-        <v>3.264655974072696</v>
+        <v>1.813641520526417</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.189782338302109</v>
+        <v>5.170784290626955</v>
       </c>
       <c r="C9">
-        <v>0.3369008100935673</v>
+        <v>0.8847866348229445</v>
       </c>
       <c r="D9">
-        <v>0.01088821020021413</v>
+        <v>0.03291081486477054</v>
       </c>
       <c r="E9">
-        <v>0.04305472707341274</v>
+        <v>0.02582109126535315</v>
       </c>
       <c r="F9">
-        <v>4.837433824306828</v>
+        <v>3.575314734748616</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1225529035408757</v>
+        <v>0.05505626818133713</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3300734479397534</v>
+        <v>0.2042543870285343</v>
       </c>
       <c r="M9">
-        <v>0.7620846647675137</v>
+        <v>0.8076989604109599</v>
       </c>
       <c r="N9">
-        <v>3.228514076392116</v>
+        <v>1.728811803681808</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.382768886533199</v>
+        <v>6.134112404143991</v>
       </c>
       <c r="C10">
-        <v>0.3807021077580544</v>
+        <v>1.071567611621674</v>
       </c>
       <c r="D10">
-        <v>0.0129002702936134</v>
+        <v>0.04058105373401588</v>
       </c>
       <c r="E10">
-        <v>0.04377095092723415</v>
+        <v>0.02823459751175861</v>
       </c>
       <c r="F10">
-        <v>4.897136646087631</v>
+        <v>3.994669801897686</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1222630884284368</v>
+        <v>0.05405330485803095</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3336591854334614</v>
+        <v>0.2320168170541024</v>
       </c>
       <c r="M10">
-        <v>0.7893929252098033</v>
+        <v>0.9516955168187877</v>
       </c>
       <c r="N10">
-        <v>3.205997497605452</v>
+        <v>1.680085670157183</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.473100869906489</v>
+        <v>6.588149011249016</v>
       </c>
       <c r="C11">
-        <v>0.4008342669046101</v>
+        <v>1.159391557315189</v>
       </c>
       <c r="D11">
-        <v>0.01381839404302099</v>
+        <v>0.04430751129513766</v>
       </c>
       <c r="E11">
-        <v>0.04409156101890321</v>
+        <v>0.02937248493223432</v>
       </c>
       <c r="F11">
-        <v>4.926673709018758</v>
+        <v>4.197497570268865</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1221369000661001</v>
+        <v>0.05360670666222322</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3354395026590709</v>
+        <v>0.2451635397850538</v>
       </c>
       <c r="M11">
-        <v>0.8022555433902596</v>
+        <v>1.019609683299059</v>
       </c>
       <c r="N11">
-        <v>3.196637113979094</v>
+        <v>1.661442929713871</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.507674978685202</v>
+        <v>6.762744275770842</v>
       </c>
       <c r="C12">
-        <v>0.4084882060028008</v>
+        <v>1.193138094081178</v>
       </c>
       <c r="D12">
-        <v>0.01416655371507147</v>
+        <v>0.0457594887802486</v>
       </c>
       <c r="E12">
-        <v>0.0442122372067697</v>
+        <v>0.02981052111830085</v>
       </c>
       <c r="F12">
-        <v>4.938202442106927</v>
+        <v>4.276297912198146</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1220899254591457</v>
+        <v>0.05343894983080677</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.336135112240683</v>
+        <v>0.2502271559266802</v>
       </c>
       <c r="M12">
-        <v>0.8071898374476945</v>
+        <v>1.04573130172281</v>
       </c>
       <c r="N12">
-        <v>3.193220043669839</v>
+        <v>1.654946487461089</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.500212457105818</v>
+        <v>6.725016914444211</v>
       </c>
       <c r="C13">
-        <v>0.4068384347850724</v>
+        <v>1.185847020241567</v>
       </c>
       <c r="D13">
-        <v>0.01409154840370519</v>
+        <v>0.04544484364333101</v>
       </c>
       <c r="E13">
-        <v>0.04418627971910816</v>
+        <v>0.02971583978823844</v>
       </c>
       <c r="F13">
-        <v>4.935704209360836</v>
+        <v>4.259233629111435</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1221000062838629</v>
+        <v>0.05347501919102093</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3359843466874253</v>
+        <v>0.2491326355142576</v>
       </c>
       <c r="M13">
-        <v>0.8061243209282054</v>
+        <v>1.040086569837889</v>
       </c>
       <c r="N13">
-        <v>3.193950290483215</v>
+        <v>1.656319574044375</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.475937929408587</v>
+        <v>6.60245730841541</v>
       </c>
       <c r="C14">
-        <v>0.4014633497993714</v>
+        <v>1.162157601128172</v>
       </c>
       <c r="D14">
-        <v>0.01384702714618413</v>
+        <v>0.04442610520361967</v>
       </c>
       <c r="E14">
-        <v>0.04410150369531252</v>
+        <v>0.02940837045963196</v>
       </c>
       <c r="F14">
-        <v>4.927615286687569</v>
+        <v>4.203938939751055</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1221330192122259</v>
+        <v>0.05359287809817692</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3354963011682202</v>
+        <v>0.2455783506955385</v>
       </c>
       <c r="M14">
-        <v>0.8026602167245471</v>
+        <v>1.021750268532585</v>
       </c>
       <c r="N14">
-        <v>3.19635343071964</v>
+        <v>1.660896822787734</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.461116976903384</v>
+        <v>6.527745068323327</v>
       </c>
       <c r="C15">
-        <v>0.3981749225540625</v>
+        <v>1.147713436031495</v>
       </c>
       <c r="D15">
-        <v>0.0136973165014922</v>
+        <v>0.04380763666392085</v>
       </c>
       <c r="E15">
-        <v>0.04404948110785512</v>
+        <v>0.0292210121736094</v>
       </c>
       <c r="F15">
-        <v>4.922705398717312</v>
+        <v>4.170337352871229</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1221533460277242</v>
+        <v>0.05366524642880988</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3352001514737282</v>
+        <v>0.2434126967166321</v>
       </c>
       <c r="M15">
-        <v>0.8005466295437884</v>
+        <v>1.010573216056152</v>
       </c>
       <c r="N15">
-        <v>3.19784204619576</v>
+        <v>1.663775681938134</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.376916779492433</v>
+        <v>6.104790132677806</v>
       </c>
       <c r="C16">
-        <v>0.3793906347689813</v>
+        <v>1.065892060108638</v>
       </c>
       <c r="D16">
-        <v>0.01284033242341565</v>
+        <v>0.04034284635108065</v>
       </c>
       <c r="E16">
-        <v>0.04374989498915927</v>
+        <v>0.02816115237345862</v>
       </c>
       <c r="F16">
-        <v>4.895254328031314</v>
+        <v>3.981678574464013</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1222714486314329</v>
+        <v>0.05408268292297347</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3335458382545369</v>
+        <v>0.231168951753844</v>
       </c>
       <c r="M16">
-        <v>0.788561195721023</v>
+        <v>0.9473103830727894</v>
       </c>
       <c r="N16">
-        <v>3.206627030179902</v>
+        <v>1.68137955673231</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.325914935094318</v>
+        <v>5.84963004362146</v>
       </c>
       <c r="C17">
-        <v>0.367920454380112</v>
+        <v>1.016481383721271</v>
       </c>
       <c r="D17">
-        <v>0.0123153809605725</v>
+        <v>0.03828253628847023</v>
       </c>
       <c r="E17">
-        <v>0.0435647874237679</v>
+        <v>0.02752212387253294</v>
       </c>
       <c r="F17">
-        <v>4.879024262666434</v>
+        <v>3.869204918208254</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1223453462207651</v>
+        <v>0.05434121882763687</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3325691665524459</v>
+        <v>0.22379758359817</v>
       </c>
       <c r="M17">
-        <v>0.7813213671413024</v>
+        <v>0.9091562217101625</v>
       </c>
       <c r="N17">
-        <v>3.212242790549539</v>
+        <v>1.693118997593601</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.296819118230644</v>
+        <v>5.704330984433341</v>
       </c>
       <c r="C18">
-        <v>0.361342531786363</v>
+        <v>0.9883251788743053</v>
       </c>
       <c r="D18">
-        <v>0.0120137040931283</v>
+        <v>0.03711936871599164</v>
       </c>
       <c r="E18">
-        <v>0.04345782765807549</v>
+        <v>0.02715823819202168</v>
       </c>
       <c r="F18">
-        <v>4.869912875786014</v>
+        <v>3.805630736170656</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1223883820969602</v>
+        <v>0.05449083218759654</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3320214494425926</v>
+        <v>0.2196057420643029</v>
       </c>
       <c r="M18">
-        <v>0.7771986051275022</v>
+        <v>0.8874338542845877</v>
       </c>
       <c r="N18">
-        <v>3.215555858055126</v>
+        <v>1.700198982249162</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.287008782698422</v>
+        <v>5.655375440512046</v>
       </c>
       <c r="C19">
-        <v>0.3591186778294571</v>
+        <v>0.9788350135149244</v>
       </c>
       <c r="D19">
-        <v>0.01191160396502511</v>
+        <v>0.03672910776500515</v>
       </c>
       <c r="E19">
-        <v>0.0434215281288397</v>
+        <v>0.02703562358259326</v>
       </c>
       <c r="F19">
-        <v>4.866866287940411</v>
+        <v>3.784290259125527</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1224030447351998</v>
+        <v>0.05454164594644073</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3318384131764986</v>
+        <v>0.2181943903985513</v>
       </c>
       <c r="M19">
-        <v>0.7758098115236507</v>
+        <v>0.8801156939409154</v>
       </c>
       <c r="N19">
-        <v>3.216691848298851</v>
+        <v>1.702650846710654</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.331319409556215</v>
+        <v>5.876638298600312</v>
       </c>
       <c r="C20">
-        <v>0.3691394602715832</v>
+        <v>1.021713428266253</v>
       </c>
       <c r="D20">
-        <v>0.01237123531925732</v>
+        <v>0.03849955110032255</v>
       </c>
       <c r="E20">
-        <v>0.04358454311684046</v>
+        <v>0.02758976067554819</v>
       </c>
       <c r="F20">
-        <v>4.880728814435173</v>
+        <v>3.881060491764913</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1223374246592095</v>
+        <v>0.05431360323305334</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3326716820229478</v>
+        <v>0.2245772394954599</v>
       </c>
       <c r="M20">
-        <v>0.7820877732636191</v>
+        <v>0.9131943374163143</v>
       </c>
       <c r="N20">
-        <v>3.21163638561417</v>
+        <v>1.691835007759082</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.483057961541022</v>
+        <v>6.638380435645956</v>
       </c>
       <c r="C21">
-        <v>0.4030413146423939</v>
+        <v>1.169101785744999</v>
       </c>
       <c r="D21">
-        <v>0.01391883513482384</v>
+        <v>0.04472416563302062</v>
       </c>
       <c r="E21">
-        <v>0.04412642420055235</v>
+        <v>0.02949847552561469</v>
       </c>
       <c r="F21">
-        <v>4.929981857672459</v>
+        <v>4.220123960187379</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1221233005445188</v>
+        <v>0.0535582233760703</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3356390700652696</v>
+        <v>0.2466199229788089</v>
       </c>
       <c r="M21">
-        <v>0.8036759828175732</v>
+        <v>1.02712462028861</v>
       </c>
       <c r="N21">
-        <v>3.195644104939291</v>
+        <v>1.659536597036393</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.584369978590246</v>
+        <v>7.151958544573688</v>
       </c>
       <c r="C22">
-        <v>0.4253751936075219</v>
+        <v>1.268327404071613</v>
       </c>
       <c r="D22">
-        <v>0.01493315219644842</v>
+        <v>0.04903436685055595</v>
       </c>
       <c r="E22">
-        <v>0.04447631648999106</v>
+        <v>0.03078838951538287</v>
       </c>
       <c r="F22">
-        <v>4.964175683777142</v>
+        <v>4.453492546464645</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.121988079420023</v>
+        <v>0.05307245638551761</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3377034097486558</v>
+        <v>0.2615291175299745</v>
       </c>
       <c r="M22">
-        <v>0.8181553663516041</v>
+        <v>1.103972477729137</v>
       </c>
       <c r="N22">
-        <v>3.185935700009523</v>
+        <v>1.641742910387862</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.530101204993741</v>
+        <v>6.876269137348629</v>
       </c>
       <c r="C23">
-        <v>0.4134387802268975</v>
+        <v>1.215074347917607</v>
       </c>
       <c r="D23">
-        <v>0.01439150286874025</v>
+        <v>0.04670926116816077</v>
       </c>
       <c r="E23">
-        <v>0.04428995656822732</v>
+        <v>0.03009552924924996</v>
       </c>
       <c r="F23">
-        <v>4.94574183283612</v>
+        <v>4.327766267110405</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1220598182157464</v>
+        <v>0.05333100349677844</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3365901982489277</v>
+        <v>0.2535217763844315</v>
       </c>
       <c r="M23">
-        <v>0.8103934897451168</v>
+        <v>1.062717575381043</v>
       </c>
       <c r="N23">
-        <v>3.191049029965484</v>
+        <v>1.650915415680117</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.328875343406082</v>
+        <v>5.864423547223851</v>
       </c>
       <c r="C24">
-        <v>0.3685882965550604</v>
+        <v>1.019347245998802</v>
       </c>
       <c r="D24">
-        <v>0.01234598318074376</v>
+        <v>0.03840137275337696</v>
       </c>
       <c r="E24">
-        <v>0.04357561324786019</v>
+        <v>0.02755917127638696</v>
       </c>
       <c r="F24">
-        <v>4.879957503037019</v>
+        <v>3.875697215892615</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1223410042803068</v>
+        <v>0.05432608519603654</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3326252918428168</v>
+        <v>0.2242246144071913</v>
       </c>
       <c r="M24">
-        <v>0.781741158002589</v>
+        <v>0.9113680461948377</v>
       </c>
       <c r="N24">
-        <v>3.211910278156722</v>
+        <v>1.692414473293709</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.120953628334007</v>
+        <v>4.827757088455428</v>
       </c>
       <c r="C25">
-        <v>0.3209497907130583</v>
+        <v>0.8180706383511733</v>
       </c>
       <c r="D25">
-        <v>0.0101492271352015</v>
+        <v>0.03025717133576222</v>
       </c>
       <c r="E25">
-        <v>0.04278624686193311</v>
+        <v>0.02495961000520808</v>
       </c>
       <c r="F25">
-        <v>4.817544464093316</v>
+        <v>3.430042188887001</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.122664656284277</v>
+        <v>0.0554343789988776</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3288852361704073</v>
+        <v>0.1944251655769307</v>
       </c>
       <c r="M25">
-        <v>0.7524166107988961</v>
+        <v>0.7564664464513058</v>
       </c>
       <c r="N25">
-        <v>3.237584629830593</v>
+        <v>1.749546169694526</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.099481059537823</v>
+        <v>2.055044147045805</v>
       </c>
       <c r="C2">
-        <v>0.6758976470247546</v>
+        <v>0.3704467503248736</v>
       </c>
       <c r="D2">
-        <v>0.02475920075253413</v>
+        <v>0.05486616515091214</v>
       </c>
       <c r="E2">
-        <v>0.02312055368891652</v>
+        <v>0.04795456527827646</v>
       </c>
       <c r="F2">
-        <v>3.129957104242081</v>
+        <v>0.808569144339252</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.004330975419726379</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003099524161843892</v>
       </c>
       <c r="J2">
-        <v>0.05628174332876057</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.425523040658863</v>
       </c>
       <c r="L2">
-        <v>0.1736947582851229</v>
+        <v>0.07260654975605618</v>
       </c>
       <c r="M2">
-        <v>0.6478008419449566</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.800527836456851</v>
+        <v>0.1991130853965259</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3846060513285536</v>
+      </c>
+      <c r="P2">
+        <v>0.9478109499488951</v>
+      </c>
+      <c r="Q2">
+        <v>2.11293933269593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.622732101748113</v>
+        <v>1.793207839315926</v>
       </c>
       <c r="C3">
-        <v>0.5822937478007759</v>
+        <v>0.3297719928959282</v>
       </c>
       <c r="D3">
-        <v>0.0212610176882535</v>
+        <v>0.0517196878298023</v>
       </c>
       <c r="E3">
-        <v>0.02190387136262917</v>
+        <v>0.04675515774293615</v>
       </c>
       <c r="F3">
-        <v>2.940734420800041</v>
+        <v>0.7751871657431124</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.00618039232289469</v>
+      </c>
+      <c r="I3">
+        <v>0.004536273719524253</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.05687620886807077</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4226740996878675</v>
       </c>
       <c r="L3">
-        <v>0.1602592203784141</v>
+        <v>0.07021494282951224</v>
       </c>
       <c r="M3">
-        <v>0.5767697096831839</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.839928576455293</v>
+        <v>0.1799352945856825</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3374501147507942</v>
+      </c>
+      <c r="P3">
+        <v>0.9651227041253776</v>
+      </c>
+      <c r="Q3">
+        <v>2.029027485736094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.336862311785467</v>
+        <v>1.631881818143739</v>
       </c>
       <c r="C4">
-        <v>0.5258888303617937</v>
+        <v>0.3048981844247578</v>
       </c>
       <c r="D4">
-        <v>0.01920214715272195</v>
+        <v>0.04980704958130033</v>
       </c>
       <c r="E4">
-        <v>0.02116667002657469</v>
+        <v>0.04600346428319257</v>
       </c>
       <c r="F4">
-        <v>2.830573333924761</v>
+        <v>0.7552449318337153</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.00752881104893291</v>
+      </c>
+      <c r="I4">
+        <v>0.00564487162522731</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.05725138689668618</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.421196560377485</v>
       </c>
       <c r="L4">
-        <v>0.152271959425434</v>
+        <v>0.06871045122001185</v>
       </c>
       <c r="M4">
-        <v>0.5342314022020389</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.866310326903928</v>
+        <v>0.1682184611963748</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3084596273561218</v>
+      </c>
+      <c r="P4">
+        <v>0.9764457874326453</v>
+      </c>
+      <c r="Q4">
+        <v>1.979113782995654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.221900475434154</v>
+        <v>1.565023892176725</v>
       </c>
       <c r="C5">
-        <v>0.5031337406535386</v>
+        <v>0.2951849629701968</v>
       </c>
       <c r="D5">
-        <v>0.0183824256106</v>
+        <v>0.04904986343058937</v>
       </c>
       <c r="E5">
-        <v>0.02086809822086177</v>
+        <v>0.04568440102287807</v>
       </c>
       <c r="F5">
-        <v>2.787068148936925</v>
+        <v>0.7467512831664109</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.00813341968946063</v>
+      </c>
+      <c r="I5">
+        <v>0.006230708155479103</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.05740686225512093</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4203130786945124</v>
       </c>
       <c r="L5">
-        <v>0.149077621602018</v>
+        <v>0.0680846506211692</v>
       </c>
       <c r="M5">
-        <v>0.5171385426186461</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.877584328562392</v>
+        <v>0.1635813240735615</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2965749648828506</v>
+      </c>
+      <c r="P5">
+        <v>0.9814334781994773</v>
+      </c>
+      <c r="Q5">
+        <v>1.957617994956877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.202898420377494</v>
+        <v>1.552723537285999</v>
       </c>
       <c r="C6">
-        <v>0.4993681357658488</v>
+        <v>0.2940662362903339</v>
       </c>
       <c r="D6">
-        <v>0.01824739120758778</v>
+        <v>0.0489460214449764</v>
       </c>
       <c r="E6">
-        <v>0.02081861465086199</v>
+        <v>0.04562057719383406</v>
       </c>
       <c r="F6">
-        <v>2.779924346056262</v>
+        <v>0.7447369582795886</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.00824135939502435</v>
+      </c>
+      <c r="I6">
+        <v>0.00643553877182601</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.05743283592110737</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4197458805847276</v>
       </c>
       <c r="L6">
-        <v>0.1485507114425317</v>
+        <v>0.06797633473177189</v>
       </c>
       <c r="M6">
-        <v>0.5143141071112112</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.879487215987425</v>
+        <v>0.1629643763197777</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2945270482903908</v>
+      </c>
+      <c r="P6">
+        <v>0.982522627670015</v>
+      </c>
+      <c r="Q6">
+        <v>1.952186900673667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.335305932562676</v>
+        <v>1.627719892602414</v>
       </c>
       <c r="C7">
-        <v>0.5255810625613435</v>
+        <v>0.3061173013750533</v>
       </c>
       <c r="D7">
-        <v>0.01919101789916766</v>
+        <v>0.04985594158224771</v>
       </c>
       <c r="E7">
-        <v>0.02116263670793739</v>
+        <v>0.04597047484697692</v>
       </c>
       <c r="F7">
-        <v>2.829981155590303</v>
+        <v>0.7534589210584954</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.007548229077849661</v>
+      </c>
+      <c r="I7">
+        <v>0.005920988925655735</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.05725347317790419</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.420026159824193</v>
       </c>
       <c r="L7">
-        <v>0.1522286411570732</v>
+        <v>0.06869219442888674</v>
       </c>
       <c r="M7">
-        <v>0.5339999385496981</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.866460287874332</v>
+        <v>0.1685725019517221</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3080970289047613</v>
+      </c>
+      <c r="P7">
+        <v>0.9772121701303575</v>
+      </c>
+      <c r="Q7">
+        <v>1.973674989682394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.933554198115417</v>
+        <v>1.960515295877485</v>
       </c>
       <c r="C8">
-        <v>0.6433771478623953</v>
+        <v>0.3582038786974238</v>
       </c>
       <c r="D8">
-        <v>0.02353258393741697</v>
+        <v>0.05385575619241223</v>
       </c>
       <c r="E8">
-        <v>0.02269859676027597</v>
+        <v>0.04750698770012241</v>
       </c>
       <c r="F8">
-        <v>3.063382439585467</v>
+        <v>0.7947305892640202</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.004934786952131842</v>
+      </c>
+      <c r="I8">
+        <v>0.003867424288100274</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.05648462118204955</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4229565743974817</v>
       </c>
       <c r="L8">
-        <v>0.1690043567184105</v>
+        <v>0.0717786052133933</v>
       </c>
       <c r="M8">
-        <v>0.6230681960247892</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.813641520526417</v>
+        <v>0.1930427108015493</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3680822118116964</v>
+      </c>
+      <c r="P8">
+        <v>0.9546254582543483</v>
+      </c>
+      <c r="Q8">
+        <v>2.076852374397873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.170784290626955</v>
+        <v>2.614852493966168</v>
       </c>
       <c r="C9">
-        <v>0.8847866348229445</v>
+        <v>0.458903440857739</v>
       </c>
       <c r="D9">
-        <v>0.03291081486477054</v>
+        <v>0.06175914641131897</v>
       </c>
       <c r="E9">
-        <v>0.02582109126535315</v>
+        <v>0.05045997430421512</v>
       </c>
       <c r="F9">
-        <v>3.575314734748616</v>
+        <v>0.8833494628463043</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.001582835464851606</v>
+      </c>
+      <c r="I9">
+        <v>0.001336960223849104</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.05505626818133713</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4330336384865241</v>
       </c>
       <c r="L9">
-        <v>0.2042543870285343</v>
+        <v>0.07757989292202616</v>
       </c>
       <c r="M9">
-        <v>0.8076989604109599</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.728811803681808</v>
+        <v>0.240807220076519</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4858614312593659</v>
+      </c>
+      <c r="P9">
+        <v>0.9146777591427053</v>
+      </c>
+      <c r="Q9">
+        <v>2.302068139913104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.134112404143991</v>
+        <v>3.080963230616533</v>
       </c>
       <c r="C10">
-        <v>1.071567611621674</v>
+        <v>0.5361808922179989</v>
       </c>
       <c r="D10">
-        <v>0.04058105373401588</v>
+        <v>0.06671498085778182</v>
       </c>
       <c r="E10">
-        <v>0.02823459751175861</v>
+        <v>0.05196850450537216</v>
       </c>
       <c r="F10">
-        <v>3.994669801897686</v>
+        <v>0.9407468090072513</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0005804995583869044</v>
+      </c>
+      <c r="I10">
+        <v>0.0009222270599771321</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.05405330485803095</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4369241602614302</v>
       </c>
       <c r="L10">
-        <v>0.2320168170541024</v>
+        <v>0.08212315336688292</v>
       </c>
       <c r="M10">
-        <v>0.9516955168187877</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.680085670157183</v>
+        <v>0.2685279006004748</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5660404571079596</v>
+      </c>
+      <c r="P10">
+        <v>0.893590361564641</v>
+      </c>
+      <c r="Q10">
+        <v>2.449532305052458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.588149011249016</v>
+        <v>3.191948965482879</v>
       </c>
       <c r="C11">
-        <v>1.159391557315189</v>
+        <v>0.5891140234850525</v>
       </c>
       <c r="D11">
-        <v>0.04430751129513766</v>
+        <v>0.06067948673714341</v>
       </c>
       <c r="E11">
-        <v>0.02937248493223432</v>
+        <v>0.04936426645426861</v>
       </c>
       <c r="F11">
-        <v>4.197497570268865</v>
+        <v>0.8777025944762329</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01910646665518101</v>
+      </c>
+      <c r="I11">
+        <v>0.00142979847652569</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.05360670666222322</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3993716782183689</v>
       </c>
       <c r="L11">
-        <v>0.2451635397850538</v>
+        <v>0.09224471085782682</v>
       </c>
       <c r="M11">
-        <v>1.019609683299059</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.661442929713871</v>
+        <v>0.2164715466103146</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5483154151464191</v>
+      </c>
+      <c r="P11">
+        <v>0.926533163981766</v>
+      </c>
+      <c r="Q11">
+        <v>2.294990098263469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.762744275770842</v>
+        <v>3.190658010725429</v>
       </c>
       <c r="C12">
-        <v>1.193138094081178</v>
+        <v>0.6158853504348087</v>
       </c>
       <c r="D12">
-        <v>0.0457594887802486</v>
+        <v>0.05481315927252695</v>
       </c>
       <c r="E12">
-        <v>0.02981052111830085</v>
+        <v>0.04947845778115489</v>
       </c>
       <c r="F12">
-        <v>4.276297912198146</v>
+        <v>0.8158717073096255</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.05782301209863761</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001430326889206412</v>
       </c>
       <c r="J12">
-        <v>0.05343894983080677</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.369715400141942</v>
       </c>
       <c r="L12">
-        <v>0.2502271559266802</v>
+        <v>0.1057916153988252</v>
       </c>
       <c r="M12">
-        <v>1.04573130172281</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.654946487461089</v>
+        <v>0.1715759395622598</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5169161476711395</v>
+      </c>
+      <c r="P12">
+        <v>0.9630409832003508</v>
+      </c>
+      <c r="Q12">
+        <v>2.14293884587056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.725016914444211</v>
+        <v>3.097662938366398</v>
       </c>
       <c r="C13">
-        <v>1.185847020241567</v>
+        <v>0.6259418949617839</v>
       </c>
       <c r="D13">
-        <v>0.04544484364333101</v>
+        <v>0.04885297828869639</v>
       </c>
       <c r="E13">
-        <v>0.02971583978823844</v>
+        <v>0.05156904710420473</v>
       </c>
       <c r="F13">
-        <v>4.259233629111435</v>
+        <v>0.7487817964858792</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1136977873715779</v>
+      </c>
+      <c r="I13">
+        <v>0.001388906366735831</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.05347501919102093</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3425492412588049</v>
       </c>
       <c r="L13">
-        <v>0.2491326355142576</v>
+        <v>0.1224763782624265</v>
       </c>
       <c r="M13">
-        <v>1.040086569837889</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.656319574044375</v>
+        <v>0.1304633770816821</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4730890569957467</v>
+      </c>
+      <c r="P13">
+        <v>1.004534773309629</v>
+      </c>
+      <c r="Q13">
+        <v>1.975745771628539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.60245730841541</v>
+        <v>2.9903784571664</v>
       </c>
       <c r="C14">
-        <v>1.162157601128172</v>
+        <v>0.6258515958015209</v>
       </c>
       <c r="D14">
-        <v>0.04442610520361967</v>
+        <v>0.04473864550291395</v>
       </c>
       <c r="E14">
-        <v>0.02940837045963196</v>
+        <v>0.0542272521231375</v>
       </c>
       <c r="F14">
-        <v>4.203938939751055</v>
+        <v>0.699577900585318</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1631766898815954</v>
+      </c>
+      <c r="I14">
+        <v>0.001444693983289724</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.05359287809817692</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3246850155126602</v>
       </c>
       <c r="L14">
-        <v>0.2455783506955385</v>
+        <v>0.1362137970639594</v>
       </c>
       <c r="M14">
-        <v>1.021750268532585</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.660896822787734</v>
+        <v>0.1044749717003981</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.437066410448594</v>
+      </c>
+      <c r="P14">
+        <v>1.036441056312071</v>
+      </c>
+      <c r="Q14">
+        <v>1.851837734332179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.527745068323327</v>
+        <v>2.943782002643559</v>
       </c>
       <c r="C15">
-        <v>1.147713436031495</v>
+        <v>0.6227640818093789</v>
       </c>
       <c r="D15">
-        <v>0.04380763666392085</v>
+        <v>0.04369295101520621</v>
       </c>
       <c r="E15">
-        <v>0.0292210121736094</v>
+        <v>0.05494902647419941</v>
       </c>
       <c r="F15">
-        <v>4.170337352871229</v>
+        <v>0.6859089607967235</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1757546269606394</v>
+      </c>
+      <c r="I15">
+        <v>0.001578919149829439</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.05366524642880988</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3204205789657877</v>
       </c>
       <c r="L15">
-        <v>0.2434126967166321</v>
+        <v>0.1394532436567673</v>
       </c>
       <c r="M15">
-        <v>1.010573216056152</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.663775681938134</v>
+        <v>0.09837418980956159</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4256338976192495</v>
+      </c>
+      <c r="P15">
+        <v>1.044941871923527</v>
+      </c>
+      <c r="Q15">
+        <v>1.81676453912084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.104790132677806</v>
+        <v>2.762087447318493</v>
       </c>
       <c r="C16">
-        <v>1.065892060108638</v>
+        <v>0.5876651848327299</v>
       </c>
       <c r="D16">
-        <v>0.04034284635108065</v>
+        <v>0.04292974534331861</v>
       </c>
       <c r="E16">
-        <v>0.02816115237345862</v>
+        <v>0.05373076034411106</v>
       </c>
       <c r="F16">
-        <v>3.981678574464013</v>
+        <v>0.6745051017585126</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1634249571177122</v>
+      </c>
+      <c r="I16">
+        <v>0.001837446200627646</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.05408268292297347</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3236387974799158</v>
       </c>
       <c r="L16">
-        <v>0.231168951753844</v>
+        <v>0.1334960253054263</v>
       </c>
       <c r="M16">
-        <v>0.9473103830727894</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.68137955673231</v>
+        <v>0.09609450867050384</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4011205992461342</v>
+      </c>
+      <c r="P16">
+        <v>1.042755067998399</v>
+      </c>
+      <c r="Q16">
+        <v>1.785298748325147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.84963004362146</v>
+        <v>2.679588096929194</v>
       </c>
       <c r="C17">
-        <v>1.016481383721271</v>
+        <v>0.5609580882962746</v>
       </c>
       <c r="D17">
-        <v>0.03828253628847023</v>
+        <v>0.04447883893503857</v>
       </c>
       <c r="E17">
-        <v>0.02752212387253294</v>
+        <v>0.05118380865746275</v>
       </c>
       <c r="F17">
-        <v>3.869204918208254</v>
+        <v>0.6916749818407197</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1259116128120183</v>
+      </c>
+      <c r="I17">
+        <v>0.002049196558765232</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.05434121882763687</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3354663829364277</v>
       </c>
       <c r="L17">
-        <v>0.22379758359817</v>
+        <v>0.1212319584531869</v>
       </c>
       <c r="M17">
-        <v>0.9091562217101625</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.693118997593601</v>
+        <v>0.1074923155373924</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4012280809793438</v>
+      </c>
+      <c r="P17">
+        <v>1.024384944097164</v>
+      </c>
+      <c r="Q17">
+        <v>1.826578412305849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.704330984433341</v>
+        <v>2.675079199789479</v>
       </c>
       <c r="C18">
-        <v>0.9883251788743053</v>
+        <v>0.5373260262803399</v>
       </c>
       <c r="D18">
-        <v>0.03711936871599164</v>
+        <v>0.04836628573561441</v>
       </c>
       <c r="E18">
-        <v>0.02715823819202168</v>
+        <v>0.04844069136508367</v>
       </c>
       <c r="F18">
-        <v>3.805630736170656</v>
+        <v>0.7372610091928422</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07315846853231989</v>
+      </c>
+      <c r="I18">
+        <v>0.001877481388091518</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.05449083218759654</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3574325585647635</v>
       </c>
       <c r="L18">
-        <v>0.2196057420643029</v>
+        <v>0.1048322795649561</v>
       </c>
       <c r="M18">
-        <v>0.8874338542845877</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.700198982249162</v>
+        <v>0.1346549509931592</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4229744897991807</v>
+      </c>
+      <c r="P18">
+        <v>0.9912745378705097</v>
+      </c>
+      <c r="Q18">
+        <v>1.940142969446669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.655375440512046</v>
+        <v>2.726992422582612</v>
       </c>
       <c r="C19">
-        <v>0.9788350135149244</v>
+        <v>0.5210031688658603</v>
       </c>
       <c r="D19">
-        <v>0.03672910776500515</v>
+        <v>0.05428551258978587</v>
       </c>
       <c r="E19">
-        <v>0.02703562358259326</v>
+        <v>0.04755616061509083</v>
       </c>
       <c r="F19">
-        <v>3.784290259125527</v>
+        <v>0.8012650927850089</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02772446274264695</v>
+      </c>
+      <c r="I19">
+        <v>0.001942424483608818</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.05454164594644073</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3853742106401761</v>
       </c>
       <c r="L19">
-        <v>0.2181943903985513</v>
+        <v>0.09049802033204912</v>
       </c>
       <c r="M19">
-        <v>0.8801156939409154</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.702650846710654</v>
+        <v>0.1776270525931452</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4609085914714726</v>
+      </c>
+      <c r="P19">
+        <v>0.9544663070759327</v>
+      </c>
+      <c r="Q19">
+        <v>2.098563118419548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.876638298600312</v>
+        <v>2.947789333046899</v>
       </c>
       <c r="C20">
-        <v>1.021713428266253</v>
+        <v>0.5202545360341162</v>
       </c>
       <c r="D20">
-        <v>0.03849955110032255</v>
+        <v>0.06555029811653412</v>
       </c>
       <c r="E20">
-        <v>0.02758976067554819</v>
+        <v>0.05146631515562738</v>
       </c>
       <c r="F20">
-        <v>3.881060491764913</v>
+        <v>0.9198391844362135</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0007537227000709024</v>
+      </c>
+      <c r="I20">
+        <v>0.00173732703875551</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.05431360323305334</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4320674528723814</v>
       </c>
       <c r="L20">
-        <v>0.2245772394954599</v>
+        <v>0.08094303305335693</v>
       </c>
       <c r="M20">
-        <v>0.9131943374163143</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.691835007759082</v>
+        <v>0.2622042031615877</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5440815864093764</v>
+      </c>
+      <c r="P20">
+        <v>0.9017103376687743</v>
+      </c>
+      <c r="Q20">
+        <v>2.393107185986764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.638380435645956</v>
+        <v>3.323738272962487</v>
       </c>
       <c r="C21">
-        <v>1.169101785744999</v>
+        <v>0.5764125393216943</v>
       </c>
       <c r="D21">
-        <v>0.04472416563302062</v>
+        <v>0.07090680978971875</v>
       </c>
       <c r="E21">
-        <v>0.02949847552561469</v>
+        <v>0.05355704824440899</v>
       </c>
       <c r="F21">
-        <v>4.220123960187379</v>
+        <v>0.9819199755495163</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>7.331005579502836E-05</v>
+      </c>
+      <c r="I21">
+        <v>0.001688463468839885</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.0535582233760703</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4433111652307105</v>
       </c>
       <c r="L21">
-        <v>0.2466199229788089</v>
+        <v>0.08376549793286259</v>
       </c>
       <c r="M21">
-        <v>1.02712462028861</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.659536597036393</v>
+        <v>0.2957462451703066</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6153775217328032</v>
+      </c>
+      <c r="P21">
+        <v>0.8800829732516604</v>
+      </c>
+      <c r="Q21">
+        <v>2.552032133752334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.151958544573688</v>
+        <v>3.568101129331581</v>
       </c>
       <c r="C22">
-        <v>1.268327404071613</v>
+        <v>0.6124215623738678</v>
       </c>
       <c r="D22">
-        <v>0.04903436685055595</v>
+        <v>0.07384712759249368</v>
       </c>
       <c r="E22">
-        <v>0.03078838951538287</v>
+        <v>0.05464880760338175</v>
       </c>
       <c r="F22">
-        <v>4.453492546464645</v>
+        <v>1.020221320586174</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>2.579676747771487E-06</v>
+      </c>
+      <c r="I22">
+        <v>0.00163442380276102</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.05307245638551761</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4501856508285655</v>
       </c>
       <c r="L22">
-        <v>0.2615291175299745</v>
+        <v>0.08581064383559678</v>
       </c>
       <c r="M22">
-        <v>1.103972477729137</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.641742910387862</v>
+        <v>0.3131385339235635</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6591217359386121</v>
+      </c>
+      <c r="P22">
+        <v>0.8676323872554264</v>
+      </c>
+      <c r="Q22">
+        <v>2.651983469984856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.876269137348629</v>
+        <v>3.441695672046592</v>
       </c>
       <c r="C23">
-        <v>1.215074347917607</v>
+        <v>0.5915172138456626</v>
       </c>
       <c r="D23">
-        <v>0.04670926116816077</v>
+        <v>0.07220368648258813</v>
       </c>
       <c r="E23">
-        <v>0.03009552924924996</v>
+        <v>0.05409728933742031</v>
       </c>
       <c r="F23">
-        <v>4.327766267110405</v>
+        <v>1.00167090624214</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>1.398530711149704E-05</v>
+      </c>
+      <c r="I23">
+        <v>0.001335054322071372</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.05333100349677844</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.447823776428109</v>
       </c>
       <c r="L23">
-        <v>0.2535217763844315</v>
+        <v>0.08472353920276721</v>
       </c>
       <c r="M23">
-        <v>1.062717575381043</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.650915415680117</v>
+        <v>0.3033397589529443</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6360218755726947</v>
+      </c>
+      <c r="P23">
+        <v>0.8731528806888065</v>
+      </c>
+      <c r="Q23">
+        <v>2.604475356854437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.864423547223851</v>
+        <v>2.956277359909336</v>
       </c>
       <c r="C24">
-        <v>1.019347245998802</v>
+        <v>0.5154623263661904</v>
       </c>
       <c r="D24">
-        <v>0.03840137275337696</v>
+        <v>0.06614770534149272</v>
       </c>
       <c r="E24">
-        <v>0.02755917127638696</v>
+        <v>0.0519541542649824</v>
       </c>
       <c r="F24">
-        <v>3.875697215892615</v>
+        <v>0.9298984026483623</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.0006010898780617335</v>
+      </c>
+      <c r="I24">
+        <v>0.00123781248806587</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.05432608519603654</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4374950805394739</v>
       </c>
       <c r="L24">
-        <v>0.2242246144071913</v>
+        <v>0.08057610499176793</v>
       </c>
       <c r="M24">
-        <v>0.9113680461948377</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.692414473293709</v>
+        <v>0.267232915622742</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5482169055636632</v>
+      </c>
+      <c r="P24">
+        <v>0.8973020576282948</v>
+      </c>
+      <c r="Q24">
+        <v>2.419691266204552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.827757088455428</v>
+        <v>2.432214630634633</v>
       </c>
       <c r="C25">
-        <v>0.8180706383511733</v>
+        <v>0.4340249522581416</v>
       </c>
       <c r="D25">
-        <v>0.03025717133576222</v>
+        <v>0.05970969450076069</v>
       </c>
       <c r="E25">
-        <v>0.02495961000520808</v>
+        <v>0.0496220814034718</v>
       </c>
       <c r="F25">
-        <v>3.430042188887001</v>
+        <v>0.8558138042206025</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.002293899855231429</v>
+      </c>
+      <c r="I25">
+        <v>0.002249365496154176</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.0554343789988776</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4279770114278421</v>
       </c>
       <c r="L25">
-        <v>0.1944251655769307</v>
+        <v>0.0760255258413105</v>
       </c>
       <c r="M25">
-        <v>0.7564664464513058</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.749546169694526</v>
+        <v>0.2285847492262576</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4536348021104573</v>
+      </c>
+      <c r="P25">
+        <v>0.9263116280003487</v>
+      </c>
+      <c r="Q25">
+        <v>2.230251408233329</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.055044147045805</v>
+        <v>1.985321550782317</v>
       </c>
       <c r="C2">
-        <v>0.3704467503248736</v>
+        <v>0.3899739058400087</v>
       </c>
       <c r="D2">
-        <v>0.05486616515091214</v>
+        <v>0.05762718723968163</v>
       </c>
       <c r="E2">
-        <v>0.04795456527827646</v>
+        <v>0.04771714131186178</v>
       </c>
       <c r="F2">
-        <v>0.808569144339252</v>
+        <v>0.7576317333522056</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.004330975419726379</v>
+        <v>0.003483739411985431</v>
       </c>
       <c r="I2">
-        <v>0.003099524161843892</v>
+        <v>0.002174650995893757</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.425523040658863</v>
+        <v>0.3827574994363836</v>
       </c>
       <c r="L2">
-        <v>0.07260654975605618</v>
+        <v>0.1823704472437591</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1101438040789819</v>
       </c>
       <c r="N2">
-        <v>0.1991130853965259</v>
+        <v>0.07178401843257465</v>
       </c>
       <c r="O2">
-        <v>0.3846060513285536</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9478109499488951</v>
+        <v>0.2141882683655894</v>
       </c>
       <c r="Q2">
-        <v>2.11293933269593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3802640114191149</v>
+      </c>
+      <c r="R2">
+        <v>0.9402292584183343</v>
+      </c>
+      <c r="S2">
+        <v>1.954052370012874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.793207839315926</v>
+        <v>1.736460656113849</v>
       </c>
       <c r="C3">
-        <v>0.3297719928959282</v>
+        <v>0.3427621356416921</v>
       </c>
       <c r="D3">
-        <v>0.0517196878298023</v>
+        <v>0.05431928371577044</v>
       </c>
       <c r="E3">
-        <v>0.04675515774293615</v>
+        <v>0.04663796352251204</v>
       </c>
       <c r="F3">
-        <v>0.7751871657431124</v>
+        <v>0.7293276726347884</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.00618039232289469</v>
+        <v>0.005055566180257653</v>
       </c>
       <c r="I3">
-        <v>0.004536273719524253</v>
+        <v>0.003202238614376185</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.4226740996878675</v>
+        <v>0.3826324988264567</v>
       </c>
       <c r="L3">
-        <v>0.07021494282951224</v>
+        <v>0.1864116883819555</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1073954517581335</v>
       </c>
       <c r="N3">
-        <v>0.1799352945856825</v>
+        <v>0.06933804046065184</v>
       </c>
       <c r="O3">
-        <v>0.3374501147507942</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9651227041253776</v>
+        <v>0.193581374096965</v>
       </c>
       <c r="Q3">
-        <v>2.029027485736094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3338501456313523</v>
+      </c>
+      <c r="R3">
+        <v>0.9511914718463075</v>
+      </c>
+      <c r="S3">
+        <v>1.885373400244902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.631881818143739</v>
+        <v>1.582828658307335</v>
       </c>
       <c r="C4">
-        <v>0.3048981844247578</v>
+        <v>0.3139871587371772</v>
       </c>
       <c r="D4">
-        <v>0.04980704958130033</v>
+        <v>0.05231309041846899</v>
       </c>
       <c r="E4">
-        <v>0.04600346428319257</v>
+        <v>0.04596031297151448</v>
       </c>
       <c r="F4">
-        <v>0.7552449318337153</v>
+        <v>0.7123783389491649</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.00752881104893291</v>
+        <v>0.006208865041568479</v>
       </c>
       <c r="I4">
-        <v>0.00564487162522731</v>
+        <v>0.004026581104284332</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.421196560377485</v>
+        <v>0.3827426536746898</v>
       </c>
       <c r="L4">
-        <v>0.06871045122001185</v>
+        <v>0.1889385143353302</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1063135541672118</v>
       </c>
       <c r="N4">
-        <v>0.1682184611963748</v>
+        <v>0.06780448715233245</v>
       </c>
       <c r="O4">
-        <v>0.3084596273561218</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9764457874326453</v>
+        <v>0.1810215490134013</v>
       </c>
       <c r="Q4">
-        <v>1.979113782995654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3052914779254721</v>
+      </c>
+      <c r="R4">
+        <v>0.9586988048553238</v>
+      </c>
+      <c r="S4">
+        <v>1.844414283230321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.565023892176725</v>
+        <v>1.519052433755093</v>
       </c>
       <c r="C5">
-        <v>0.2951849629701968</v>
+        <v>0.3027336288448765</v>
       </c>
       <c r="D5">
-        <v>0.04904986343058937</v>
+        <v>0.0515195954450931</v>
       </c>
       <c r="E5">
-        <v>0.04568440102287807</v>
+        <v>0.04567177379991083</v>
       </c>
       <c r="F5">
-        <v>0.7467512831664109</v>
+        <v>0.7050884201257475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.00813341968946063</v>
+        <v>0.006727615069623272</v>
       </c>
       <c r="I5">
-        <v>0.006230708155479103</v>
+        <v>0.004500368444076308</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.4203130786945124</v>
+        <v>0.3825071930136339</v>
       </c>
       <c r="L5">
-        <v>0.0680846506211692</v>
+        <v>0.1898181149695155</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1059399136773287</v>
       </c>
       <c r="N5">
-        <v>0.1635813240735615</v>
+        <v>0.06716977424864634</v>
       </c>
       <c r="O5">
-        <v>0.2965749648828506</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9814334781994773</v>
+        <v>0.176052822378594</v>
       </c>
       <c r="Q5">
-        <v>1.957617994956877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2935773173805885</v>
+      </c>
+      <c r="R5">
+        <v>0.9621870888366928</v>
+      </c>
+      <c r="S5">
+        <v>1.826523343497058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.552723537285999</v>
+        <v>1.507275757884031</v>
       </c>
       <c r="C6">
-        <v>0.2940662362903339</v>
+        <v>0.3013873888094878</v>
       </c>
       <c r="D6">
-        <v>0.0489460214449764</v>
+        <v>0.05141030870967711</v>
       </c>
       <c r="E6">
-        <v>0.04562057719383406</v>
+        <v>0.04561335888373996</v>
       </c>
       <c r="F6">
-        <v>0.7447369582795886</v>
+        <v>0.7032902610525724</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.00824135939502435</v>
+        <v>0.006820471040715759</v>
       </c>
       <c r="I6">
-        <v>0.00643553877182601</v>
+        <v>0.004702001845906523</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.4197458805847276</v>
+        <v>0.3820733018553106</v>
       </c>
       <c r="L6">
-        <v>0.06797633473177189</v>
+        <v>0.189768272649701</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1057839477091846</v>
       </c>
       <c r="N6">
-        <v>0.1629643763197777</v>
+        <v>0.06706230000558921</v>
       </c>
       <c r="O6">
-        <v>0.2945270482903908</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.982522627670015</v>
+        <v>0.1753853707536948</v>
       </c>
       <c r="Q6">
-        <v>1.952186900673667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2915576401468272</v>
+      </c>
+      <c r="R6">
+        <v>0.9630712351384716</v>
+      </c>
+      <c r="S6">
+        <v>1.821750773416852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.627719892602414</v>
+        <v>1.578754598987814</v>
       </c>
       <c r="C7">
-        <v>0.3061173013750533</v>
+        <v>0.3152607938362166</v>
       </c>
       <c r="D7">
-        <v>0.04985594158224771</v>
+        <v>0.05236289883426437</v>
       </c>
       <c r="E7">
-        <v>0.04597047484697692</v>
+        <v>0.0459287036100724</v>
       </c>
       <c r="F7">
-        <v>0.7534589210584954</v>
+        <v>0.7106604676234625</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.007548229077849661</v>
+        <v>0.006225910986853433</v>
       </c>
       <c r="I7">
-        <v>0.005920988925655735</v>
+        <v>0.00434217651661406</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.420026159824193</v>
+        <v>0.3816579083702116</v>
       </c>
       <c r="L7">
-        <v>0.06869219442888674</v>
+        <v>0.1884287262563014</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1060142927531658</v>
       </c>
       <c r="N7">
-        <v>0.1685725019517221</v>
+        <v>0.06779254737160922</v>
       </c>
       <c r="O7">
-        <v>0.3080970289047613</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9772121701303575</v>
+        <v>0.1813825160578091</v>
       </c>
       <c r="Q7">
-        <v>1.973674989682394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.304931993153815</v>
+      </c>
+      <c r="R7">
+        <v>0.959566369870295</v>
+      </c>
+      <c r="S7">
+        <v>1.839212354625431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.960515295877485</v>
+        <v>1.895396292442882</v>
       </c>
       <c r="C8">
-        <v>0.3582038786974238</v>
+        <v>0.3755645665311249</v>
       </c>
       <c r="D8">
-        <v>0.05385575619241223</v>
+        <v>0.05656204607949178</v>
       </c>
       <c r="E8">
-        <v>0.04750698770012241</v>
+        <v>0.04731249667992099</v>
       </c>
       <c r="F8">
-        <v>0.7947305892640202</v>
+        <v>0.7456486059335177</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.004934786952131842</v>
+        <v>0.003995732648593431</v>
       </c>
       <c r="I8">
-        <v>0.003867424288100274</v>
+        <v>0.002860137916812278</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.4229565743974817</v>
+        <v>0.3812631045416346</v>
       </c>
       <c r="L8">
-        <v>0.0717786052133933</v>
+        <v>0.1831278119108646</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1086319338801811</v>
       </c>
       <c r="N8">
-        <v>0.1930427108015493</v>
+        <v>0.07094612898103225</v>
       </c>
       <c r="O8">
-        <v>0.3680822118116964</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9546254582543483</v>
+        <v>0.2076348194666764</v>
       </c>
       <c r="Q8">
-        <v>2.076852374397873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3640025635668493</v>
+      </c>
+      <c r="R8">
+        <v>0.9450176635135605</v>
+      </c>
+      <c r="S8">
+        <v>1.92358474916665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.614852493966168</v>
+        <v>2.515691100264917</v>
       </c>
       <c r="C9">
-        <v>0.458903440857739</v>
+        <v>0.4931404265392132</v>
       </c>
       <c r="D9">
-        <v>0.06175914641131897</v>
+        <v>0.06489700338229909</v>
       </c>
       <c r="E9">
-        <v>0.05045997430421512</v>
+        <v>0.0499644925828493</v>
       </c>
       <c r="F9">
-        <v>0.8833494628463043</v>
+        <v>0.8208056158170791</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001582835464851606</v>
+        <v>0.001189599788003814</v>
       </c>
       <c r="I9">
-        <v>0.001336960223849104</v>
+        <v>0.001104433808011507</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.4330336384865241</v>
+        <v>0.3839644075558688</v>
       </c>
       <c r="L9">
-        <v>0.07757989292202616</v>
+        <v>0.1739255148268697</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1192363700092329</v>
       </c>
       <c r="N9">
-        <v>0.240807220076519</v>
+        <v>0.07689937780046208</v>
       </c>
       <c r="O9">
-        <v>0.4858614312593659</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9146777591427053</v>
+        <v>0.2591449632589473</v>
       </c>
       <c r="Q9">
-        <v>2.302068139913104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4797826265492802</v>
+      </c>
+      <c r="R9">
+        <v>0.9212414521197516</v>
+      </c>
+      <c r="S9">
+        <v>2.108243677603866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.080963230616533</v>
+        <v>2.956758586263277</v>
       </c>
       <c r="C10">
-        <v>0.5361808922179989</v>
+        <v>0.5830395328731584</v>
       </c>
       <c r="D10">
-        <v>0.06671498085778182</v>
+        <v>0.07014264913038204</v>
       </c>
       <c r="E10">
-        <v>0.05196850450537216</v>
+        <v>0.05130870799071241</v>
       </c>
       <c r="F10">
-        <v>0.9407468090072513</v>
+        <v>0.8687064799364919</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0005804995583869044</v>
+        <v>0.0004347552834325086</v>
       </c>
       <c r="I10">
-        <v>0.0009222270599771321</v>
+        <v>0.001081695235625624</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.4369241602614302</v>
+        <v>0.3828483353865586</v>
       </c>
       <c r="L10">
-        <v>0.08212315336688292</v>
+        <v>0.1659085268593792</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1283951001906054</v>
       </c>
       <c r="N10">
-        <v>0.2685279006004748</v>
+        <v>0.08176187832266635</v>
       </c>
       <c r="O10">
-        <v>0.5660404571079596</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.893590361564641</v>
+        <v>0.2893356941261942</v>
       </c>
       <c r="Q10">
-        <v>2.449532305052458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5584633941652584</v>
+      </c>
+      <c r="R10">
+        <v>0.9128780384454913</v>
+      </c>
+      <c r="S10">
+        <v>2.226976527031638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.191948965482879</v>
+        <v>3.068959601377912</v>
       </c>
       <c r="C11">
-        <v>0.5891140234850525</v>
+        <v>0.6381558378837724</v>
       </c>
       <c r="D11">
-        <v>0.06067948673714341</v>
+        <v>0.0637843533256941</v>
       </c>
       <c r="E11">
-        <v>0.04936426645426861</v>
+        <v>0.04911407129671563</v>
       </c>
       <c r="F11">
-        <v>0.8777025944762329</v>
+        <v>0.8103122164673806</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01910646665518101</v>
+        <v>0.01897766297975068</v>
       </c>
       <c r="I11">
-        <v>0.00142979847652569</v>
+        <v>0.001767206111137121</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.3993716782183689</v>
+        <v>0.3500584540872005</v>
       </c>
       <c r="L11">
-        <v>0.09224471085782682</v>
+        <v>0.1511853564411965</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.119727416528967</v>
       </c>
       <c r="N11">
-        <v>0.2164715466103146</v>
+        <v>0.09356873969881718</v>
       </c>
       <c r="O11">
-        <v>0.5483154151464191</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.926533163981766</v>
+        <v>0.2345559065489056</v>
       </c>
       <c r="Q11">
-        <v>2.294990098263469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5410330067935192</v>
+      </c>
+      <c r="R11">
+        <v>0.9545871144956593</v>
+      </c>
+      <c r="S11">
+        <v>2.086229474999385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.190658010725429</v>
+        <v>3.074202459981166</v>
       </c>
       <c r="C12">
-        <v>0.6158853504348087</v>
+        <v>0.6636570709948728</v>
       </c>
       <c r="D12">
-        <v>0.05481315927252695</v>
+        <v>0.05759188067415266</v>
       </c>
       <c r="E12">
-        <v>0.04947845778115489</v>
+        <v>0.04957481172585609</v>
       </c>
       <c r="F12">
-        <v>0.8158717073096255</v>
+        <v>0.7542118830107114</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05782301209863761</v>
+        <v>0.05768524188282242</v>
       </c>
       <c r="I12">
-        <v>0.001430326889206412</v>
+        <v>0.0017780620427299</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.369715400141942</v>
+        <v>0.3251728884720713</v>
       </c>
       <c r="L12">
-        <v>0.1057916153988252</v>
+        <v>0.1416662545395013</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1110314942473991</v>
       </c>
       <c r="N12">
-        <v>0.1715759395622598</v>
+        <v>0.108326405630546</v>
       </c>
       <c r="O12">
-        <v>0.5169161476711395</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9630409832003508</v>
+        <v>0.186948656814117</v>
       </c>
       <c r="Q12">
-        <v>2.14293884587056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.510201731133634</v>
+      </c>
+      <c r="R12">
+        <v>0.9948831646640031</v>
+      </c>
+      <c r="S12">
+        <v>1.951282139571418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.097662938366398</v>
+        <v>2.992295184940019</v>
       </c>
       <c r="C13">
-        <v>0.6259418949617839</v>
+        <v>0.6698306036318797</v>
       </c>
       <c r="D13">
-        <v>0.04885297828869639</v>
+        <v>0.05129399311454108</v>
       </c>
       <c r="E13">
-        <v>0.05156904710420473</v>
+        <v>0.05197070882029653</v>
       </c>
       <c r="F13">
-        <v>0.7487817964858792</v>
+        <v>0.6940336658763329</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1136977873715779</v>
+        <v>0.1135265042690889</v>
       </c>
       <c r="I13">
-        <v>0.001388906366735831</v>
+        <v>0.001694616512726732</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.3425492412588049</v>
+        <v>0.3031437125249283</v>
       </c>
       <c r="L13">
-        <v>0.1224763782624265</v>
+        <v>0.1345123569762414</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1013934267198486</v>
       </c>
       <c r="N13">
-        <v>0.1304633770816821</v>
+        <v>0.1258871393851706</v>
       </c>
       <c r="O13">
-        <v>0.4730890569957467</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.004534773309629</v>
+        <v>0.1430686422256215</v>
       </c>
       <c r="Q13">
-        <v>1.975745771628539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4671720796279644</v>
+      </c>
+      <c r="R13">
+        <v>1.036664643213783</v>
+      </c>
+      <c r="S13">
+        <v>1.804894600432021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.9903784571664</v>
+        <v>2.894759701719806</v>
       </c>
       <c r="C14">
-        <v>0.6258515958015209</v>
+        <v>0.6658533501518491</v>
       </c>
       <c r="D14">
-        <v>0.04473864550291395</v>
+        <v>0.04694548044789215</v>
       </c>
       <c r="E14">
-        <v>0.0542272521231375</v>
+        <v>0.05481227084698226</v>
       </c>
       <c r="F14">
-        <v>0.699577900585318</v>
+        <v>0.650104321218933</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1631766898815954</v>
+        <v>0.1629689090050874</v>
       </c>
       <c r="I14">
-        <v>0.001444693983289724</v>
+        <v>0.001708132472334256</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.3246850155126602</v>
+        <v>0.2889687398121055</v>
       </c>
       <c r="L14">
-        <v>0.1362137970639594</v>
+        <v>0.1303865193937703</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09438216045437287</v>
       </c>
       <c r="N14">
-        <v>0.1044749717003981</v>
+        <v>0.1400450755892706</v>
       </c>
       <c r="O14">
-        <v>0.437066410448594</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.036441056312071</v>
+        <v>0.1151890374244502</v>
       </c>
       <c r="Q14">
-        <v>1.851837734332179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4317954461134974</v>
+      </c>
+      <c r="R14">
+        <v>1.067093899943828</v>
+      </c>
+      <c r="S14">
+        <v>1.696961783447676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.943782002643559</v>
+        <v>2.851461799832578</v>
       </c>
       <c r="C15">
-        <v>0.6227640818093789</v>
+        <v>0.6613321210223262</v>
       </c>
       <c r="D15">
-        <v>0.04369295101520621</v>
+        <v>0.04584083329682187</v>
       </c>
       <c r="E15">
-        <v>0.05494902647419941</v>
+        <v>0.05557227762495742</v>
       </c>
       <c r="F15">
-        <v>0.6859089607967235</v>
+        <v>0.6379808622960326</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1757546269606394</v>
+        <v>0.1755285116682757</v>
       </c>
       <c r="I15">
-        <v>0.001578919149829439</v>
+        <v>0.001839892161379808</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.3204205789657877</v>
+        <v>0.2857118252464765</v>
       </c>
       <c r="L15">
-        <v>0.1394532436567673</v>
+        <v>0.1296395136992743</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.09241770243067293</v>
       </c>
       <c r="N15">
-        <v>0.09837418980956159</v>
+        <v>0.1433277456386648</v>
       </c>
       <c r="O15">
-        <v>0.4256338976192495</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.044941871923527</v>
+        <v>0.1086154401371502</v>
       </c>
       <c r="Q15">
-        <v>1.81676453912084</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4205654302150208</v>
+      </c>
+      <c r="R15">
+        <v>1.074607286346719</v>
+      </c>
+      <c r="S15">
+        <v>1.666605048387112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.762087447318493</v>
+        <v>2.678123916328445</v>
       </c>
       <c r="C16">
-        <v>0.5876651848327299</v>
+        <v>0.6215706643907026</v>
       </c>
       <c r="D16">
-        <v>0.04292974534331861</v>
+        <v>0.04504404516971405</v>
       </c>
       <c r="E16">
-        <v>0.05373076034411106</v>
+        <v>0.05431949498683331</v>
       </c>
       <c r="F16">
-        <v>0.6745051017585126</v>
+        <v>0.6289576936893795</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1634249571177122</v>
+        <v>0.163095515452568</v>
       </c>
       <c r="I16">
-        <v>0.001837446200627646</v>
+        <v>0.001982429555706489</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.3236387974799158</v>
+        <v>0.2898090058871787</v>
       </c>
       <c r="L16">
-        <v>0.1334960253054263</v>
+        <v>0.1329797734305558</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.09088384654343784</v>
       </c>
       <c r="N16">
-        <v>0.09609450867050384</v>
+        <v>0.1369056124231562</v>
       </c>
       <c r="O16">
-        <v>0.4011205992461342</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.042755067998399</v>
+        <v>0.1060516010485699</v>
       </c>
       <c r="Q16">
-        <v>1.785298748325147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3964856750452128</v>
+      </c>
+      <c r="R16">
+        <v>1.066556611315136</v>
+      </c>
+      <c r="S16">
+        <v>1.642500355131915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.679588096929194</v>
+        <v>2.596869218926884</v>
       </c>
       <c r="C17">
-        <v>0.5609580882962746</v>
+        <v>0.5934028732852994</v>
       </c>
       <c r="D17">
-        <v>0.04447883893503857</v>
+        <v>0.04668592620508605</v>
       </c>
       <c r="E17">
-        <v>0.05118380865746275</v>
+        <v>0.05166145008557699</v>
       </c>
       <c r="F17">
-        <v>0.6916749818407197</v>
+        <v>0.6452385906076472</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1259116128120183</v>
+        <v>0.1255190068342671</v>
       </c>
       <c r="I17">
-        <v>0.002049196558765232</v>
+        <v>0.002127115615419228</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.3354663829364277</v>
+        <v>0.3004325548964566</v>
       </c>
       <c r="L17">
-        <v>0.1212319584531869</v>
+        <v>0.1379823919570491</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09324861100225235</v>
       </c>
       <c r="N17">
-        <v>0.1074923155373924</v>
+        <v>0.1241089784665519</v>
       </c>
       <c r="O17">
-        <v>0.4012280809793438</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.024384944097164</v>
+        <v>0.1181763499808994</v>
       </c>
       <c r="Q17">
-        <v>1.826578412305849</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3965939935962979</v>
+      </c>
+      <c r="R17">
+        <v>1.044637787301767</v>
+      </c>
+      <c r="S17">
+        <v>1.681171575084676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.675079199789479</v>
+        <v>2.587734504598814</v>
       </c>
       <c r="C18">
-        <v>0.5373260262803399</v>
+        <v>0.5706947718693414</v>
       </c>
       <c r="D18">
-        <v>0.04836628573561441</v>
+        <v>0.0507908685856826</v>
       </c>
       <c r="E18">
-        <v>0.04844069136508367</v>
+        <v>0.04871066049398376</v>
       </c>
       <c r="F18">
-        <v>0.7372610091928422</v>
+        <v>0.686915423713522</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07315846853231989</v>
+        <v>0.07275069905657006</v>
       </c>
       <c r="I18">
-        <v>0.001877481388091518</v>
+        <v>0.001887257921694641</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.3574325585647635</v>
+        <v>0.3191151853066643</v>
       </c>
       <c r="L18">
-        <v>0.1048322795649561</v>
+        <v>0.1455877021153533</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09942899212715517</v>
       </c>
       <c r="N18">
-        <v>0.1346549509931592</v>
+        <v>0.1069823291281793</v>
       </c>
       <c r="O18">
-        <v>0.4229744897991807</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9912745378705097</v>
+        <v>0.1470871479906108</v>
       </c>
       <c r="Q18">
-        <v>1.940142969446669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4179699702448048</v>
+      </c>
+      <c r="R18">
+        <v>1.009122310895776</v>
+      </c>
+      <c r="S18">
+        <v>1.782943748597887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.726992422582612</v>
+        <v>2.630760674001237</v>
       </c>
       <c r="C19">
-        <v>0.5210031688658603</v>
+        <v>0.5571508839320529</v>
       </c>
       <c r="D19">
-        <v>0.05428551258978587</v>
+        <v>0.05703116394266061</v>
       </c>
       <c r="E19">
-        <v>0.04755616061509083</v>
+        <v>0.04752516137501206</v>
       </c>
       <c r="F19">
-        <v>0.8012650927850089</v>
+        <v>0.7447545462251597</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02772446274264695</v>
+        <v>0.02735595827927284</v>
       </c>
       <c r="I19">
-        <v>0.001942424483608818</v>
+        <v>0.002002406038245752</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.3853742106401761</v>
+        <v>0.3422801829977722</v>
       </c>
       <c r="L19">
-        <v>0.09049802033204912</v>
+        <v>0.1544827270503966</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1079412320629736</v>
       </c>
       <c r="N19">
-        <v>0.1776270525931452</v>
+        <v>0.09170417962299737</v>
       </c>
       <c r="O19">
-        <v>0.4609085914714726</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9544663070759327</v>
+        <v>0.1926958242479913</v>
       </c>
       <c r="Q19">
-        <v>2.098563118419548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4552440852056421</v>
+      </c>
+      <c r="R19">
+        <v>0.9707261796598914</v>
+      </c>
+      <c r="S19">
+        <v>1.922833915104604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.947789333046899</v>
+        <v>2.830547318058166</v>
       </c>
       <c r="C20">
-        <v>0.5202545360341162</v>
+        <v>0.564051692764707</v>
       </c>
       <c r="D20">
-        <v>0.06555029811653412</v>
+        <v>0.06890409695138544</v>
       </c>
       <c r="E20">
-        <v>0.05146631515562738</v>
+        <v>0.05085616506624735</v>
       </c>
       <c r="F20">
-        <v>0.9198391844362135</v>
+        <v>0.8506073241818726</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0007537227000709024</v>
+        <v>0.0005505583079483678</v>
       </c>
       <c r="I20">
-        <v>0.00173732703875551</v>
+        <v>0.001961406761496143</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.4320674528723814</v>
+        <v>0.3796989532824178</v>
       </c>
       <c r="L20">
-        <v>0.08094303305335693</v>
+        <v>0.1667470969581757</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.12449233998354</v>
       </c>
       <c r="N20">
-        <v>0.2622042031615877</v>
+        <v>0.08053006745583957</v>
       </c>
       <c r="O20">
-        <v>0.5440815864093764</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9017103376687743</v>
+        <v>0.2823834737143187</v>
       </c>
       <c r="Q20">
-        <v>2.393107185986764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5369175940823681</v>
+      </c>
+      <c r="R20">
+        <v>0.9181510987045272</v>
+      </c>
+      <c r="S20">
+        <v>2.179188595517815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.323738272962487</v>
+        <v>3.184479709456355</v>
       </c>
       <c r="C21">
-        <v>0.5764125393216943</v>
+        <v>0.6306989662283797</v>
       </c>
       <c r="D21">
-        <v>0.07090680978971875</v>
+        <v>0.07457296305607031</v>
       </c>
       <c r="E21">
-        <v>0.05355704824440899</v>
+        <v>0.05273127062434924</v>
       </c>
       <c r="F21">
-        <v>0.9819199755495163</v>
+        <v>0.9035268155738407</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.331005579502836E-05</v>
+        <v>2.591458867340357E-05</v>
       </c>
       <c r="I21">
-        <v>0.001688463468839885</v>
+        <v>0.002123749053096091</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.4433111652307105</v>
+        <v>0.3856460042733794</v>
       </c>
       <c r="L21">
-        <v>0.08376549793286259</v>
+        <v>0.1630876155312819</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1349521307934971</v>
       </c>
       <c r="N21">
-        <v>0.2957462451703066</v>
+        <v>0.08331871196026341</v>
       </c>
       <c r="O21">
-        <v>0.6153775217328032</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8800829732516604</v>
+        <v>0.3185724134813341</v>
       </c>
       <c r="Q21">
-        <v>2.552032133752334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6068340436087212</v>
+      </c>
+      <c r="R21">
+        <v>0.9058019064062606</v>
+      </c>
+      <c r="S21">
+        <v>2.310397125915983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.568101129331581</v>
+        <v>3.414758834644715</v>
       </c>
       <c r="C22">
-        <v>0.6124215623738678</v>
+        <v>0.6733277547577927</v>
       </c>
       <c r="D22">
-        <v>0.07384712759249368</v>
+        <v>0.07769198380611186</v>
       </c>
       <c r="E22">
-        <v>0.05464880760338175</v>
+        <v>0.0537078700117517</v>
       </c>
       <c r="F22">
-        <v>1.020221320586174</v>
+        <v>0.9361170198801432</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.579676747771487E-06</v>
+        <v>2.007229917366793E-05</v>
       </c>
       <c r="I22">
-        <v>0.00163442380276102</v>
+        <v>0.002095333283750556</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.4501856508285655</v>
+        <v>0.3892240975256911</v>
       </c>
       <c r="L22">
-        <v>0.08581064383559678</v>
+        <v>0.1604955116201907</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1422008769030718</v>
       </c>
       <c r="N22">
-        <v>0.3131385339235635</v>
+        <v>0.08542392580110025</v>
       </c>
       <c r="O22">
-        <v>0.6591217359386121</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8676323872554264</v>
+        <v>0.3374734525319099</v>
       </c>
       <c r="Q22">
-        <v>2.651983469984856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6496982211072648</v>
+      </c>
+      <c r="R22">
+        <v>0.8994346972211034</v>
+      </c>
+      <c r="S22">
+        <v>2.3929687801689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.441695672046592</v>
+        <v>3.295808458182023</v>
       </c>
       <c r="C23">
-        <v>0.5915172138456626</v>
+        <v>0.6487548488600225</v>
       </c>
       <c r="D23">
-        <v>0.07220368648258813</v>
+        <v>0.07595046636119918</v>
       </c>
       <c r="E23">
-        <v>0.05409728933742031</v>
+        <v>0.05321599368881902</v>
       </c>
       <c r="F23">
-        <v>1.00167090624214</v>
+        <v>0.9205355158878774</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.398530711149704E-05</v>
+        <v>3.019835139728144E-07</v>
       </c>
       <c r="I23">
-        <v>0.001335054322071372</v>
+        <v>0.001725624036310158</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.447823776428109</v>
+        <v>0.3884965515524748</v>
       </c>
       <c r="L23">
-        <v>0.08472353920276721</v>
+        <v>0.1622838265326578</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1387792306562936</v>
       </c>
       <c r="N23">
-        <v>0.3033397589529443</v>
+        <v>0.08429309562126441</v>
       </c>
       <c r="O23">
-        <v>0.6360218755726947</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8731528806888065</v>
+        <v>0.3268478019737415</v>
       </c>
       <c r="Q23">
-        <v>2.604475356854437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6270689285416822</v>
+      </c>
+      <c r="R23">
+        <v>0.9014964404539754</v>
+      </c>
+      <c r="S23">
+        <v>2.354445728963839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.956277359909336</v>
+        <v>2.838113731327041</v>
       </c>
       <c r="C24">
-        <v>0.5154623263661904</v>
+        <v>0.5592454315865609</v>
       </c>
       <c r="D24">
-        <v>0.06614770534149272</v>
+        <v>0.06953549347762333</v>
       </c>
       <c r="E24">
-        <v>0.0519541542649824</v>
+        <v>0.05130012733211453</v>
       </c>
       <c r="F24">
-        <v>0.9298984026483623</v>
+        <v>0.859862121444479</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0006010898780617335</v>
+        <v>0.0004044299961942777</v>
       </c>
       <c r="I24">
-        <v>0.00123781248806587</v>
+        <v>0.001366051130376356</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.4374950805394739</v>
+        <v>0.3843811269638486</v>
       </c>
       <c r="L24">
-        <v>0.08057610499176793</v>
+        <v>0.1685538313091719</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1261967874713683</v>
       </c>
       <c r="N24">
-        <v>0.267232915622742</v>
+        <v>0.08000493376304441</v>
       </c>
       <c r="O24">
-        <v>0.5482169055636632</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8973020576282948</v>
+        <v>0.2877018289819659</v>
       </c>
       <c r="Q24">
-        <v>2.419691266204552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5409819838798455</v>
+      </c>
+      <c r="R24">
+        <v>0.9130247932834124</v>
+      </c>
+      <c r="S24">
+        <v>2.203290820779614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.432214630634633</v>
+        <v>2.342635864445072</v>
       </c>
       <c r="C25">
-        <v>0.4340249522581416</v>
+        <v>0.4637639011310171</v>
       </c>
       <c r="D25">
-        <v>0.05970969450076069</v>
+        <v>0.06272936874786694</v>
       </c>
       <c r="E25">
-        <v>0.0496220814034718</v>
+        <v>0.04921055756035786</v>
       </c>
       <c r="F25">
-        <v>0.8558138042206025</v>
+        <v>0.7971500510102629</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.002293899855231429</v>
+        <v>0.001775515647755577</v>
       </c>
       <c r="I25">
-        <v>0.002249365496154176</v>
+        <v>0.001919798144211171</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.4279770114278421</v>
+        <v>0.381158761698714</v>
       </c>
       <c r="L25">
-        <v>0.0760255258413105</v>
+        <v>0.1756187281221884</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1151657913813615</v>
       </c>
       <c r="N25">
-        <v>0.2285847492262576</v>
+        <v>0.0753154282877917</v>
       </c>
       <c r="O25">
-        <v>0.4536348021104573</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9263116280003487</v>
+        <v>0.2459053103772959</v>
       </c>
       <c r="Q25">
-        <v>2.230251408233329</v>
+        <v>0.4481233087111889</v>
+      </c>
+      <c r="R25">
+        <v>0.9287059869957019</v>
+      </c>
+      <c r="S25">
+        <v>2.048209659414169</v>
       </c>
     </row>
   </sheetData>
